--- a/result/Datalix.xlsx
+++ b/result/Datalix.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="data Jobs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Machine Learning Engineer Jobs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,22 +490,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45042</v>
+        <v>45073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Baillie Lumber</t>
+          <t>Innovatily</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Boiler Watchman</t>
+          <t>Innovatily - Data Scientist - Python/Numpy</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -515,43 +515,43 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Smyrna, NY</t>
+          <t>Greater Kolkata Area</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/boiler-watchman-at-baillie-lumber-3588478652?refId=d0%2BGUEE6VzHhq6XhEycgFw%3D%3D&amp;trackingId=2%2FPlPqB%2BjKohN6r9vomogA%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://in.linkedin.com/jobs/view/innovatily-data-scientist-python-numpy-at-innovatily-3613691798?refId=MMEwGK70qNRql%2Fb8Z0R4cw%3D%3D&amp;trackingId=tY08vLp%2F7YC1Bi9VMJkHfg%3D%3D&amp;position=11&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Boiler Watchman Summary  Our Smyrna, NY facility is hiring a Boiler Watchman. This is a full time opportunity working for a world class hardwood lumber manufacturer. The position has a rotating schedule including every other weekend. Additional hours of coverage may be required to work weekends, holidays, and cover vacation hours.  Boiler Watchman Responsibilities  Ensures a the wood-waste boiler is supplied a correct mixture of woodchips and sawdust using a front-end loader. Address any alarms associated with the boiler operations and respond appropriately. Yard maintenance such as cleaning around the yard and snow removal during the winter.  Boiler Watchman Qualifications  Experience as a heavy equipment operator REQUIRED - ex: front end loader, dump truck Must be willing to work in all weather conditions. Must be willing to work weekends as needed Must be self motivated and comfortable working alone.  Boiler Watchman Pay &amp; Benefits  Competitive, experience based pay Overtime weekly Full Plan of Benefits for full time employees Thorough training will be provided Please refer to the "Full Job Description" button below to review our physical demands form prior to applying to this position.***  Federal and NY State Labor Laws https://www.baillie.com/images/NewYorkFederalComboEnglish.pdf</t>
+          <t>Innovatily is seeking a highly skilled and experienced Data Scientist/AI Specialist with a strong background in Python programming. As part of the team, you will play a crucial role in driving data-driven decision-making and developing cutting-edge artificial intelligence solutions. Your expertise in Python and data science will contribute to the development of innovative algorithms, predictive models, and advanced analytics solutions.  Responsibilities  Develop and maintain scalable and efficient Python code for data analysis, data pre-processing, and machine learning model development. Build data pipelines and ETL processes to extract, transform, and load data from various sources into data science and AI platforms. Implement data exploration and visualization techniques to gain insights from complex datasets. Design, develop, and deploy machine learning models using Python libraries such as scikit-learn, TensorFlow, or PyTorch. Optimize and fine-tune machine learning models for performance and accuracy. Integrate machine learning models into production systems and ensure smooth deployment and monitoring. Collaborate with software engineers to design and develop scalable and robust software systems that incorporate data science and AI capabilities. Stay up-to-date with the latest advancements in data science, AI, and machine learning technologies and methodologies. Participate in code reviews, provide constructive feedback, and contribute to improving development processes and best practices. Troubleshoot and resolve technical issues related to data science and AI applications. Document code, algorithms, and processes to ensure effective knowledge sharing and maintainable codebase. Requirements :  Bachelor's or Master's degree in Computer Science. Proven experience as a Python Developer with a focus on data science or AI, preferably in a commercial or industry setting Strong proficiency in Python programming and its scientific computing libraries (e.g., NumPy, Pandas, SciPy). Solid understanding of data structures, algorithms, and software development principles. Experience with data visualization libraries (e.g., Matplotlib, Seaborn, Plotly) to effectively communicate insights. Familiarity with machine learning frameworks and libraries (e.g., scikit-learn, TensorFlow, PyTorch). Knowledge of statistical analysis and experimental design. Understanding of database systems and SQL for data querying and manipulation. Proficiency in version control systems (e.g., Git) and collaborative development workflows. Excellent problem-solving and analytical thinking skills. Strong communication and teamwork abilities to collaborate effectively with cross-functional teams. Ability to manage multiple tasks and deliver high-quality results within deadlines. Joining our team as a Data Scientist/AI specialist offers an exciting opportunity to work on challenging projects and contribute to the development of cutting-edge data-driven solutions. If you are passionate about Python, data science, and AI, and enjoy solving complex problems using innovative approaches, we encourage you to apply.  (ref:hirist.com)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>it, operations, maintenance, aws, app</t>
+          <t>computer science, git, pandas, models, data analysis, advanced, datasets, matplotlib, app, learning, workflow, project, it, data visualization, scipy, sql, visualization, python, etl, design, data science, machine learning, led, algorithms, analytics, numpy, processing, excel, database</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45034</v>
+        <v>45073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>American Queen Voyages™</t>
+          <t>Innovatily</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Watchman</t>
+          <t>Innovatily - Data Scientist - Python/Numpy</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -561,68 +561,3978 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Albany, New York Metropolitan Area</t>
+          <t>Greater Kolkata Area</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.linkedin.com/jobs/view/watchman-at-american-queen-voyages%E2%84%A2-3568567467?refId=d0%2BGUEE6VzHhq6XhEycgFw%3D%3D&amp;trackingId=AGi39aD865mnVdXdIFuSbw%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+          <t>https://in.linkedin.com/jobs/view/innovatily-data-scientist-python-numpy-at-innovatily-3613691798?refId=%2Fbqm7BL%2BlGtUTG9QMchYVQ%3D%3D&amp;trackingId=H2KZ5cZ6ifUK7JjJh7D5CQ%3D%3D&amp;position=4&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>The Watchman is responsible for maintaining rounds, gangway watch and assists with bridge resource management team.  Essential Duties &amp; Responsibilities  Maintains gangway watch at podium providing security checks in accordance with ASP Confirms all onboard to Captain in accordance with pre-departure procedures Maintain passenger accountability via passenger &amp; crew check in/check out Maintain vessel fire, safety, and security rounds in accordance with USCG regulations Maintain regular watch clock rounds and report to the Pilothouse every hour during the hours of 10 PM to 6 AM Assist in navigation of vessel - maintain lookout, aerial clearance, river stages &amp; lock status checks Assist pilothouse watch as liaison for internal communications Raise &amp; lower pilothouse &amp; smokestacks as needed while Pilot &amp; Mate man the wing station Cleans pilothouse space &amp; equipment Assist in line handling as needed Assist in case of emergency Assist in deck maintenance and cleaning as needed Comply with safety and pollution prevention regulations and operating procedures Respond to all General Alarms and emergency situations per the Station Bill Participate and ensure participation of all USCG mandated drills and emergency procedures as directed Actively participates in embarking duties such as loading, unloading, luggage carrying, etc., as needed Performs other duties if required since above stated describe only  Education  Requirements &amp; Qualifications  HS Diploma or Equivalent Required  Professional Certification(s) Or License  Valid Transportation Worker Identification Credential (TWIC) –ability to obtain and maintain Valid Merchant Marine Credential (MMC) preferred Valid Driver’s License Copy of DD214, if Veteran status  Skills &amp; Abilities  Excellent verbal and written communication skills; must be fluent in English Ability to interact with individuals at all levels in a pleasant and professional manner Proficiency with MS Office applications Ability to use independent judgment and discretion Ability to work well under pressure and handle emergency response Logically and independently plan, organize, and complete work assignments  Experience  At least one year of experience in position with similar duties and responsibilities Cruise industry experience preferred  Physical  Must submit to and pass mandated USCG physical Ability to meet and maintain the maximum onboard bunk bed capacity of 300 lbs. Ability to conduct work in a marine environment that is subject to some/all the following: confined spaces, uneven surfaces, variations in temperature, wake, and motion Ability to lift and carry up to 50 lbs. Ability to climb stairs and ladders  Other  Must be at least 21 years of age. Submit to and pass alcohol and drug tests as mandated by the USCG including but not limited to pre-employment, random, reasonable suspicion, and post-accident/incident testing. This position pays $200/day worked Additional requirements may be required depending on the physical needs of the role  Our Values - RESPECT  At Hornblower Group and American Queen Voyages, our mission is to create amazing experiences – not  only for our guests, but our employees. Our company values (RESPECT) and operating principles  (Hornblower 12) allow us to live out our mission of creating amazing experiences.  RESPECT stands for: Respect, Environment, Safety First, Professionalism, Exceed, Communication and  Teamwork.  EEO - Equal Opportunity Employment  The Company is proud to be an Equal Employment Opportunity and Affirmative Action employer. We prohibit discrimination and harassment against any applicants or employees based upon their race, color, religion, national origin, sex, age, sexual orientation, gender identity or expression, mental or physical disability, status as a protected veteran, or other characteristics prohibited by applicable law.  Additionally, we encourage all qualified applicants including those with past arrest or conviction records to apply. The Company participates in the E-Verify program in certain locations.</t>
+          <t>Innovatily is seeking a highly skilled and experienced Data Scientist/AI Specialist with a strong background in Python programming. As part of the team, you will play a crucial role in driving data-driven decision-making and developing cutting-edge artificial intelligence solutions. Your expertise in Python and data science will contribute to the development of innovative algorithms, predictive models, and advanced analytics solutions.  Responsibilities  Develop and maintain scalable and efficient Python code for data analysis, data pre-processing, and machine learning model development. Build data pipelines and ETL processes to extract, transform, and load data from various sources into data science and AI platforms. Implement data exploration and visualization techniques to gain insights from complex datasets. Design, develop, and deploy machine learning models using Python libraries such as scikit-learn, TensorFlow, or PyTorch. Optimize and fine-tune machine learning models for performance and accuracy. Integrate machine learning models into production systems and ensure smooth deployment and monitoring. Collaborate with software engineers to design and develop scalable and robust software systems that incorporate data science and AI capabilities. Stay up-to-date with the latest advancements in data science, AI, and machine learning technologies and methodologies. Participate in code reviews, provide constructive feedback, and contribute to improving development processes and best practices. Troubleshoot and resolve technical issues related to data science and AI applications. Document code, algorithms, and processes to ensure effective knowledge sharing and maintainable codebase. Requirements :  Bachelor's or Master's degree in Computer Science. Proven experience as a Python Developer with a focus on data science or AI, preferably in a commercial or industry setting Strong proficiency in Python programming and its scientific computing libraries (e.g., NumPy, Pandas, SciPy). Solid understanding of data structures, algorithms, and software development principles. Experience with data visualization libraries (e.g., Matplotlib, Seaborn, Plotly) to effectively communicate insights. Familiarity with machine learning frameworks and libraries (e.g., scikit-learn, TensorFlow, PyTorch). Knowledge of statistical analysis and experimental design. Understanding of database systems and SQL for data querying and manipulation. Proficiency in version control systems (e.g., Git) and collaborative development workflows. Excellent problem-solving and analytical thinking skills. Strong communication and teamwork abilities to collaborate effectively with cross-functional teams. Ability to manage multiple tasks and deliver high-quality results within deadlines. Joining our team as a Data Scientist/AI specialist offers an exciting opportunity to work on challenging projects and contribute to the development of cutting-edge data-driven solutions. If you are passionate about Python, data science, and AI, and enjoy solving complex problems using innovative approaches, we encourage you to apply.  (ref:hirist.com)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>excel, it, rest, maintenance, color, record, app</t>
+          <t>computer science, git, pandas, models, data analysis, advanced, datasets, matplotlib, app, learning, workflow, project, it, data visualization, scipy, sql, visualization, python, etl, design, data science, machine learning, led, algorithms, analytics, numpy, processing, excel, database</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>55</v>
+      </c>
+      <c r="B4" t="n">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>45073</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Pattern®</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Machine Learning Data Engineer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra, India</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/machine-learning-data-engineer-at-pattern%C2%AE-3619967452?refId=%2Fbqm7BL%2BlGtUTG9QMchYVQ%3D%3D&amp;trackingId=wrb4EFMPSCCx760AiPqNVQ%3D%3D&amp;position=6&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Job Description:  Are you obsessed with data, partner success, taking action, and changing the game? If you have a whole lot of hustle and a touch of nerd, come work with Pattern! We want you to use your skills to push one of the fastest-growing companies in the US to the top of the list.  Pattern is the premier partner for global e-commerce acceleration and is headquartered in Utah's Silicon Slopes tech hub—with offices in Asia, Australia, Europe, the Middle East, and North America. Valued at $2 billion, Pattern has been named one of the fastest-growing tech companies in North America by Deloitte and one of the best-led companies in America by Inc. More than 100 global brands—like Nestle, Sylvania, Kong, Panasonic, Sorel, Skullcandy, and Popsockets—rely on Pattern's global e-commerce acceleration platform to scale their business around the world. We place employee experience at the centre of our business model and have been recognized as one of America's Most Loved Workplaces®.  We're looking for a dynamic, people-oriented, highly analytical person to join our team in Pattern’s Pune office.  Description: Create and maintain data pipelines for machine learning projects critical to the organization. Explore data relationships and make recommendations for data improvements. Recommend improvements in machine learning models. Understand business processes surrounding data flows.  Requirements: 4+ years of experience with building data pipelines in getting the data required to build and evaluate ML models, including distributed data processing frameworks. Mastery of SQL in areas relevant to data pipelines Curious and capable of understanding the business flows surrounding data Experienced in data and model diagramming Familiar with version control and testing environments Experience in AWS Sagemaker is a plus  Pattern is an equal opportunity employer. We celebrate diversity and are committed to creating an inclusive environment for all employees.</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>aws, models, commerce, learning, project, it, ml, sql, building, e-commerce, machine learning, led, processing</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>94</v>
+      </c>
+      <c r="B5" t="n">
+        <v>95</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>45072</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>OpeninApp</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>AI/ML Engineer</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bengaluru North, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/ai-ml-engineer-at-openinapp-3612327485?refId=3XAhmb0E78rdz8IvvT6w4Q%3D%3D&amp;trackingId=hX6soz700PShxL7WO3qfPA%3D%3D&amp;position=20&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>About Listed  We are a lab building products for the creator economy. Why so, because we are on a mission to empower the individual to realise/unleash their full potential. Following are some of our flagship products:  OpeninApp  Almost all your favourite creators on Instagram share links to their latest YouTube videos or YouTube channels in their bio or stories. But whenever you tap on those links, you get redirected to the YouTube website instead of the YouTube app. And here you can’t watch the video in full screen nor can you like it, comment on it or subscribe to the channel.  Ever wondered why it is so? That’s because Instagram has something called a Built—IN-Browser that opens up instead of opening the app you wanted to open. Which is not cool at all….And this is not just so for IG but for all your favourite social media apps eg. YouTube, LinkedIn, Twitter, Snapchat, Telegram, Quora etc.  So we fixed this problem of sub-optimal user experiences by building a tool that ensures all social media links open in the apps they should. It’s called OpeninApp. And it is already been loved by over 20,000 influencers &amp; brands including the likes of Munawar Faruqui, Raj Shamani, Riva Arora, Aishwarya (Ranjnikant-ji’s daughter), trakin Tech, Mamaearth etc. And has been used by 55Mn+ users.  Listed.fans  We Listians find it very painful that unlike tech entrepreneurs there’s little to no capital available for our darling social media creators or influencers, the wonderful people who entertain us, educate us and so so much more. And this is not just the case for social media creators but individual performers of any form be they are, cricketers, singers, dancers, actors etc… So, Listed helps rising creators get funded, just like startups by been-there done-that's like mega-influencers, agency owners and brand CXOs to launch and accelerate their own creator-ships. In return, these rising stars pledge to share a portion of their future incomes with their investors for a certain fixed period of time.  So, if you believe the gifted individuals of today will overshadow the companies of yesterday, and in doing so, have the right to capital &amp; guidance, then welcome to the tribe.  So if you are someone who is passionate about social media and wants to improve User Experiences for a Billion+ people, then welcome home…  Who Should apply?  If you are someone who has -  Understanding and hands-on experience with AI/ML Modelling, Libraries, frameworks, and Tools Knowledge of Python, SQL/NoSQL Desire to be hands-on and help invent AI for creators and Influencers Relevant education or certification in AI/ML  Please Apply!  Shortlisting Criteria  Nothing fancy, you will be given a task to prove your skills.  Why work with us?  Infinite creative freedom.  This is your opportunity to prove your creativity to the world  What's the company culture like?  Extremely passionate.  We’re only looking for people who want to prove to the world how gifted they are or who really really want to truly democratize access to capital.  This is not a job, it’s a mission.  Contact  Got more questions, feel free to write to us at careers@listed.fans  Skills: python,sql,nosql</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>linkedin, app, it, api, ml, sql, python, building, web, led</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>93</v>
+      </c>
+      <c r="B6" t="n">
+        <v>94</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>45072</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>PAGO Analytics</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Software Engineer (Freshers)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hyderabad, Telangana, India</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/software-engineer-freshers-at-pago-analytics-3618147819?refId=3XAhmb0E78rdz8IvvT6w4Q%3D%3D&amp;trackingId=dzPKH71ldLGZCQx00MwSyQ%3D%3D&amp;position=19&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Exp: 0-1 years; Job Description What you will be having with and what we are looking in you... You're a personality of a self-starter. You're always wanted to beat your self best and not satisfied with the status quo. You get inspired by and in a fast-paced environment where every day is a new day with new challenges faced. You are self-moldable, self-charged, dependable, and work well in different technology cultures. Learning quickly is personally rewarding and inspires you to take calculated risks. This position is a component of the PAGO Analytics Off-Campus Program. This will provide you with an opportunity to accelerate your drive and enthusiasm while learning from BEST Bread of minds within the industry. You'll be front and center, hands-on, and contributing your creative energy to high-impact projects from the instant you arrive through the course of this Internship Program. You'll participate in meaningful work and real-life projects within Technology Organization which will facilitate your growth both professionally and personally throughout the program. Keyskills 2019 and 2020 - B-Tech/M-Tech Graduates of Computer Engineering, Information Technology or a related major. Any training, certifications completed. A strong conviction to build long term careers. Some technical knowledge in Database, any programming language. Excellent Time Management and Communication skills. Should have an aptitude, logical reasoning, and problem-solving capabilities.</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>campus, learning, project, it, inform, led, analytics, excel, database</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>45072</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Glean</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Software Engineer, Frontend (India)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/software-engineer-frontend-india-at-glean-3616379508?refId=p9A%2BbPSQjHH8tB9RZuQYUw%3D%3D&amp;trackingId=mhlV8AIFkFzQpeusQb0Ynw%3D%3D&amp;position=11&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>About Glean  Finding the right information, teammate, or insights to get things done at work doesn't have to be that hard.  Glean is on a mission to bring people the knowledge they need to make a difference in the world. We're passionate about helping people answer workplace questions faster with less frustration and wasted time.  Founded in 2019, Glean is a Series C company backed by some of the Valley's leading venture capitalists, including Sequoia, Kleiner Perkins, Lightspeed, and General Catalyst. Join a world-class team with senior leadership experience at Google, Facebook, Dropbox, Evernote, Rubrik, Uber, Intercom, Pinterest, Palantir, among others.  Role  Glean is looking for creative engineers to launch beautiful, smooth user facing features from within a modern React and TypeScript codebase. In a rapidly growing startup, this entails developing ideas with product designers to best balance constraints with requirements, delivering best-in-class user interfaces that run in modern mobile and desktop browsers, as well as creating frontend infrastructure to support rapid experimentation and development.  What you will do and achieve: Build delightful user interfaces with React.js in collaboration with stellar product designers and backend engineers Oversee the entirety of your features from inception to launch and beyond Write robust code that's easy to read, maintain and test Push the boundaries of platform constraints to integrate an instant Scio experience into every workflow Mentor more junior engineers or learn from battle tested ones  Who you are: BA/BS in computer science, or related degree Experience with a highly polished consumer grade React.js app, or 3+ with any web app  Key knowledge and skills: Thrive in a customer-focused, tight-knit and cross-functional environment A proactive and positive attitude to lead, learn, troubleshoot and take ownership of both small tasks and large features Passionate about using open web technologies (HTML5/CSS/JS) to build pixel perfect, zero-latency, 60FPS user interfaces that run on all devices Comfortable in TypeScript, or JavaScript and type-curious Experienced in or desire to master one or more of: Progressive Web Apps (PWA), Web Extensions, Electron, Capacitor, React, Redux, Webpack  Benefits Competitive compensation Healthcare Flexible work environment 401k Unlimited PTO Transparent culture Learning and development opportunities Company events Free meals  We are a diverse bunch of people and we want to continue to attract and retain a diverse range of people into our organization. We're committed to an inclusive and diverse company. We do not discriminate based on gender, ethnicity, sexual orientation, religion, civil or family status, age, disability, or race.</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>computer science, rest, app, learning, features, workflow, it, api, ml, inform, design, web, led, infrastructure</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>142</v>
+      </c>
+      <c r="B8" t="n">
+        <v>143</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>45072</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>OpeninApp</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>AI/ML Engineer - Intern</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Internship</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/ai-ml-engineer-intern-at-openinapp-3619234536?refId=n05x%2Bj4PpBsT2234tP2yaw%3D%3D&amp;trackingId=%2FecZaeiNqGFZbjuHVAYoaQ%3D%3D&amp;position=18&amp;pageNum=5&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>About Listed  We are a lab building products for the creator economy. Why so, because we are on a mission to empower the individual to realise/unleash their full potential. Following are some of our flagship products:  OpeninApp  Almost all your favourite creators on Instagram share links to their latest YouTube videos or YouTube channels in their bio or stories. But whenever you tap on those links, you get redirected to the YouTube website instead of the YouTube app. And here you can’t watch the video in full screen nor can you like it, comment on it or subscribe to the channel.  Ever wondered why it is so? That’s because Instagram has something called a Built—IN-Browser that opens up instead of opening the app you wanted to open. Which is not cool at all….And this is not just so for IG but for all your favourite social media apps eg. YouTube, LinkedIn, Twitter, Snapchat, Telegram, Quora etc.  So we fixed this problem of sub-optimal user experiences by building a tool that ensures all social media links open in the apps they should. It’s called OpeninApp. And it is already been loved by over 20,000 influencers &amp; brands including the likes of Munawar Faruqui, Raj Shamani, Riva Arora, Aishwarya (Ranjnikant-ji’s daughter), trakin Tech, Mamaearth etc. And has been used by 55Mn+ users.  Listed.fans  We Listians find it very painful that unlike tech entrepreneurs there’s little to no capital available for our darling social media creators or influencers, the wonderful people who entertain us, educate us and so so much more. And this is not just the case for social media creators but individual performers of any form be they are, cricketers, singers, dancers, actors etc… So, Listed helps rising creators get funded, just like startups by been-there done-that's like mega-influencers, agency owners and brand CXOs to launch and accelerate their own creator-ships. In return, these rising stars pledge to share a portion of their future incomes with their investors for a certain fixed period of time.  So, if you believe the gifted individuals of today will overshadow the companies of yesterday, and in doing so, have the right to capital &amp; guidance, then welcome to the tribe.  So if you are someone who is passionate about social media and wants to improve User Experiences for a Billion+ people, then welcome home…  Who Should apply?  If you are someone who has - Understanding and hands-on experience with AI/ML Modelling, Libraries, frameworks, and Tools Knowledge of Python, SQL/NoSQL Desire to be hands-on and help invent AI for creators and Influencers Relevant education or certification in AI/ML  Please Apply!  Shortlisting Criteria  Nothing fancy, you will be given a task to prove your skills.  Why work with us?  Infinite creative freedom.  This is your opportunity to prove your creativity to the world  What's the company culture like?  Extremely passionate.  We’re only looking for people who want to prove to the world how gifted they are or who really really want to truly democratize access to capital.  This is not a job, it’s a mission.  Contact  Got more questions, feel free to write to us at careers@listed.fans</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>linkedin, app, it, api, ml, sql, python, building, web, led</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>15</v>
+      </c>
+      <c r="B9" t="n">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>45070</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TechieYan Technologies</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Machine Learning Development Internship in Hyderabad at Techieyan Technologies</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Internship</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Hyderabad, Telangana, India</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/machine-learning-development-internship-in-hyderabad-at-techieyan-technologies-at-techieyan-technologies-3616515221?refId=p9A%2BbPSQjHH8tB9RZuQYUw%3D%3D&amp;trackingId=H5JprmVAQALVbLBBzmpdlw%3D%3D&amp;position=16&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>About Techieyan Technologies  Website  We started with a vision of providing every individual access to technology and gradually we succeeded to implement robotics and space sciences as a part of the curriculum in hundreds of colleges and schools. We are techies from different fields like robotics, electronics, electrical, and mechanical backgrounds. We provide hands-on engineering experience and make students industry-ready by providing them training in multiple fields.  Activity on Internshala  Hiring since December 2020  67 opportunities posted  5 candidates hired  About The Internship  Selected intern's day-to-day responsibilities include:  Working on Python and Ml/AI-related projects Handling the clients and their requirements Submitting report and project update to your manager  Skill(s) required  Computer Vision Deep Learning Machine Learning Natural Language Processing (NLP) Python  Earn certifications in these skills  Learn Python  Learn Voice App Development  Learn Machine Learning  Learn Computer Vision  Learn Deep Learning  Who can apply  Only Those Candidates Can Apply Who  are available for full time (in-office) internship can start the internship between 22nd May'23 and 26th Jun'23 are available for duration of 6 months have relevant skills and interests  Perks  Certificate Letter of recommendation Informal dress code Job offer  Additional Information  Job offer: On successful conversion to a permanent employee, the candidate can expect a salary of Rs. 2 to 4 Lac/annum  Number of openings  2  Additional Questions  Sign up to continue  Sign up/ Login with Google  OR  Email  Password  First Name  Last Name  By signing up, you agree to our Terms and Conditions .  Already registered? Login  Sign up to continue  Sign up/ Login with Google  OR  Email  Password  First Name  Last Name  By signing up, you agree to our Terms and Conditions .  Already registered? Login</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>word, rest, deep learning, app, learning, project, it, nlp, ml, inform, python, web, machine learning, processing</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>118</v>
+      </c>
+      <c r="B10" t="n">
+        <v>119</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>45068</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Unify Technologies</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Applied AI/ML Engineer</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Hyderabad, Telangana, India</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/applied-ai-ml-engineer-at-unify-technologies-3614792194?refId=IP6FU9xOabsLJ0ZAN7PpHQ%3D%3D&amp;trackingId=IbWoUxthhJLPeF%2BTv9DCGA%3D%3D&amp;position=19&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Our Company: Unify Technologies  Company Nature of work: IT-Software Product Development and Product Engineering Services  Founded Year: 2015  Company Locations: USA, Hyderabad, Bangalore, Pune, Chandigarh, Gurgaon  Num of total Employees: 1,500+  Company Website: http://unifytech.com/  Company LinkedIn Website Address: https://www.linkedin.com/company/9206998  Employment Type: Full-Time  Role: Senior Software Development Engineer - Sr SDE  Project: AI Research Product  Experience: 6-10 Years  Key Skills: Design, Develop, and Deploy Machine Learning (ML) models, Good Understanding of Data Structures, Algorithms, Strong in Logical and problem solving skills  Number of Openings: 04  Joining time: Immediate to 30 days  Job Location: Hyderabad - India (Work from Office)  Education: Masters/Bachelors degree in Computer Science, Statistics, Engineering or a related technical discipline from a reputed institute is preferred.  Detailed Job Description  We are looking for an Applied ML Engineer who can Design, Develop, and Deploy Machine Learning (ML) models and applications using advanced techniques such as Language Modeling and Deep Learning. As an Applied ML Engineer, you will be responsible for building intelligent applications that leverage state-of-the-art algorithms to deliver exceptional user experiences.  Requirements Minimum 4+ years of experience building ML Models and applications in a production environment. Strong proficiency in programming languages such as Python and Java Hands-on experience with Machine Learning frameworks such as TensorFlow, PyTorch, and Keras Solid understanding of Deep Learning architectures such as Convolutional Neural Networks (CNNs) and Recurrent Neural Networks (RNNs) Familiarity with cloud services such as AWS, Azure and GCP for ML model deployment and management Excellent problem-solving skills and ability to work independently or in a team Strong communication and interpersonal skills Responsibilities Collaborate with cross-functional teams to identify business problems and opportunities that can be solved with ML solutions Develop, train, and optimise machine learning models using frameworks such as TensorFlow, PyTorch, and Keras Build natural language processing (NLP) models and applications using advanced techniques such as language modeling and text generation Design and implement machine learning pipelines for data processing, feature engineering, and model training Deploy and manage ML models in production using cloud services such as AWS, Azure and GCP Monitor model performance and diagnose issues to maintain model accuracy and reliability Work with software engineers to integrate ML models into applications and build scalable systems Stay up-to-date with the latest research and industry trends in ML and NLP Contact: prakashg@unifytech.com</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>computer science, research, aws, models, advanced, linkedin, deep learning, keras, app, learning, cloud services, project, it, nlp, ml, search, python, design, building, web, machine learning, led, algorithms, cloud, processing, excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>80</v>
+      </c>
+      <c r="B11" t="n">
+        <v>81</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>45065</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ZOOP.ONE</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ML Engineer</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra, India</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/ml-engineer-at-zoop-one-3609844942?refId=3XAhmb0E78rdz8IvvT6w4Q%3D%3D&amp;trackingId=d%2BolW6Rl4ICVWXl%2B7Uw25Q%3D%3D&amp;position=6&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Responsibilities  Develop and experiment with our core ML models end-to-end and solve challenging problems in Computer Vision domain that directly impact our customers. Create and maintain dashboards, tooling, and visualisations for communicating value and enabling others to answer data questions. Write production-quality clean code and tooling in a fast-paced environment. Collaborate closely with other ML engineers, and full-stack engineers and be an integral part of the team. Participate in paper reading groups on the latest research in the field.  Requirements  Proficiency in Python 3 experience with machine learning frameworks such as PyTorch and Tensorflow. 2+ years of experience working with and analysing data sets to solve complex problems (excluding internships). Experience in deep learning Experience and patience in training deep learning models, making them production ready, and finally launching. A/B testing of models on real customers, derive insights from the analysis. Hands-on programmer, experience with object-oriented programming and software testing. Good understanding of computer science concepts, data structures and algorithms. Experience with Computer Vision preferred. Excellent understanding of ML metrics space. Experience with searching for, then tweaking models from already published papers. Good knowledge of Linear Algebra, Probability and fundamentals of Statistics. Experience with tooling for demonstrating results, building dashboards and communicating results in a clear and concise manner.</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>computer science, research, models, deep learning, learning, it, ml, search, python, building, machine learning, led, algorithms, excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>145</v>
+      </c>
+      <c r="B12" t="n">
+        <v>146</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>45065</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Aidaptive</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Itanagar, Arunachal Pradesh, India</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/machine-learning-engineer-at-aidaptive-3619767328?refId=n05x%2Bj4PpBsT2234tP2yaw%3D%3D&amp;trackingId=sCkWPULdM4G8d0Z3oSfHoA%3D%3D&amp;position=21&amp;pageNum=5&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Role  We're a global team with a track record of building world class enterprise products and are seeking talented Machine Learning Engineers to develop and optimize ML models.  Minimum Qualifications Bachelor's degree in Computer Science, Mathematics, or equivalent practical experience. Python development experience for modeling. Experience with deep learning frameworks including TensorFlow and other machine learning libraries Preferred Qualifications Master's or PhD degree in Computer Science, Artificial Intelligence, Machine Learning, or related technical field. Experience in building, deploying, and improving machine learning models and algorithms in real-world products. Experience with one or more of the following: natural language processing, computer vision, recommendation systems or similar. Responsibilities Develop solutions for real world, large scale problems. Design, develop, test, maintain and improve Machine Learning models. Manage project priorities, deadlines, and deliverables.</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>computer science, models, deep learning, learning, project, it, ml, python, design, building, record, machine learning, algorithms, processing</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>33</v>
+      </c>
+      <c r="B13" t="n">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>45063</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Judge India Solutions</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ML Engineer-4-5 years Exp</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Noida, Uttar Pradesh, India</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/ml-engineer-4-5-years-exp-at-judge-india-solutions-3571654934?refId=MMEwGK70qNRql%2Fb8Z0R4cw%3D%3D&amp;trackingId=%2FjynVWrZJw4ICoZE6NJpJw%3D%3D&amp;position=9&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>ML Engineer-4-5 years exp for Noida Location   Job Description: We are seeking an experienced AI/ML Engineer with a strong background in Python programming and expertise in deep learning, computer vision, and facial recognition. As an AI/ML Engineer, you will be responsible for developing and implementing machine learning and deep learning models to solve complex problems. You will work closely with cross-functional teams and have the opportunity to apply your knowledge and skills to cutting-edge AI projects. Responsibilities: Machine Learning and Deep Learning Model Development: Utilize your strong hands-on experience in Python programming to design, develop, and implement machine learning and deep learning models. Leverage AI/ML and deep learning frameworks (such as TensorFlow, PyTorch, or Keras) to build and train models for various applications. Work with large datasets, including image and text data, and apply appropriate techniques for data preprocessing, feature extraction, and model training. Computer Vision and Facial Recognition: Apply your expertise in computer vision to develop algorithms and models for tasks such as object detection, image classification, and image segmentation. Implement facial recognition systems, including face detection, face identification, and emotion recognition. Work on proctoring systems that involve monitoring and analyzing video streams to detect suspicious activities or cheating behavior. Data Training and Retraining: Train and retrain data systems to improve model performance and accuracy. Stay updated with the latest research and techniques in AI/ML and deep learning and apply them to enhance the existing models. Continuously evaluate and optimize models for efficiency and scalability. Integration and Deployment: Collaborate with the software development team to integrate AI/ML models into production systems. Develop REST API calls for seamless integration and interaction between different systems. Have knowledge of SQL for data manipulation and querying. Research and Innovation: Stay up-to-date with the latest advancements in AI/ML, deep learning, and computer vision through research papers, conferences, and online forums. Contribute to the development of innovative solutions and propose new approaches to solve complex problems. Requirements: Bachelor's or Master's degree in Computer Science, Data Science, or a related field. A Ph.D. in a relevant field is preferred. 4-5 years of hands-on experience in AI/ML, deep learning, and computer vision. Strong proficiency in Python programming and experience with AI/ML and deep learning frameworks (e.g., TensorFlow, PyTorch, Keras). Knowledge of REST API calls and experience with SQL for data manipulation. Experience working with large datasets, particularly image and text data. Expertise in deep learning techniques and architectures, such as convolutional neural networks (CNNs), recurrent neural networks (RNNs), and generative adversarial networks (GANs). Strong understanding of computer vision principles and algorithms, including object detection, image classification, and image segmentation. Familiarity with facial recognition techniques and frameworks. Experience in proctoring systems or video analytics is a plus. Ability to train and retrain data systems to improve model performance. Strong problem-solving and analytical skills, with a focus on delivering high-quality solutions. Excellent communication and collaboration skills to work effectively within cross-functional teams. Publications or contributions to the AI/ML community, such as research papers or open-source projects, especially related to computer vision or facial recognition, will be highly preferred. If you meet the requirements and have a passion for AI/ML, deep learning, and computer vision, we encourage you to apply for this position.</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>computer science, rest, research, models, datasets, deep learning, keras, app, learning, project, it, api, ml, search, sql, python, design, data science, machine learning, led, algorithms, analytics, processing, excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>85</v>
+      </c>
+      <c r="B14" t="n">
+        <v>86</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>45063</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Judge India Solutions</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ML Engineer-4-5 years Exp</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Noida, Uttar Pradesh, India</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/ml-engineer-4-5-years-exp-at-judge-india-solutions-3571654934?refId=3XAhmb0E78rdz8IvvT6w4Q%3D%3D&amp;trackingId=3Mng%2FJikLwWa7GdILy08kg%3D%3D&amp;position=11&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>ML Engineer-4-5 years exp for Noida Location   Job Description: We are seeking an experienced AI/ML Engineer with a strong background in Python programming and expertise in deep learning, computer vision, and facial recognition. As an AI/ML Engineer, you will be responsible for developing and implementing machine learning and deep learning models to solve complex problems. You will work closely with cross-functional teams and have the opportunity to apply your knowledge and skills to cutting-edge AI projects. Responsibilities: Machine Learning and Deep Learning Model Development: Utilize your strong hands-on experience in Python programming to design, develop, and implement machine learning and deep learning models. Leverage AI/ML and deep learning frameworks (such as TensorFlow, PyTorch, or Keras) to build and train models for various applications. Work with large datasets, including image and text data, and apply appropriate techniques for data preprocessing, feature extraction, and model training. Computer Vision and Facial Recognition: Apply your expertise in computer vision to develop algorithms and models for tasks such as object detection, image classification, and image segmentation. Implement facial recognition systems, including face detection, face identification, and emotion recognition. Work on proctoring systems that involve monitoring and analyzing video streams to detect suspicious activities or cheating behavior. Data Training and Retraining: Train and retrain data systems to improve model performance and accuracy. Stay updated with the latest research and techniques in AI/ML and deep learning and apply them to enhance the existing models. Continuously evaluate and optimize models for efficiency and scalability. Integration and Deployment: Collaborate with the software development team to integrate AI/ML models into production systems. Develop REST API calls for seamless integration and interaction between different systems. Have knowledge of SQL for data manipulation and querying. Research and Innovation: Stay up-to-date with the latest advancements in AI/ML, deep learning, and computer vision through research papers, conferences, and online forums. Contribute to the development of innovative solutions and propose new approaches to solve complex problems. Requirements: Bachelor's or Master's degree in Computer Science, Data Science, or a related field. A Ph.D. in a relevant field is preferred. 4-5 years of hands-on experience in AI/ML, deep learning, and computer vision. Strong proficiency in Python programming and experience with AI/ML and deep learning frameworks (e.g., TensorFlow, PyTorch, Keras). Knowledge of REST API calls and experience with SQL for data manipulation. Experience working with large datasets, particularly image and text data. Expertise in deep learning techniques and architectures, such as convolutional neural networks (CNNs), recurrent neural networks (RNNs), and generative adversarial networks (GANs). Strong understanding of computer vision principles and algorithms, including object detection, image classification, and image segmentation. Familiarity with facial recognition techniques and frameworks. Experience in proctoring systems or video analytics is a plus. Ability to train and retrain data systems to improve model performance. Strong problem-solving and analytical skills, with a focus on delivering high-quality solutions. Excellent communication and collaboration skills to work effectively within cross-functional teams. Publications or contributions to the AI/ML community, such as research papers or open-source projects, especially related to computer vision or facial recognition, will be highly preferred. If you meet the requirements and have a passion for AI/ML, deep learning, and computer vision, we encourage you to apply for this position.</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>computer science, rest, research, models, datasets, deep learning, keras, app, learning, project, it, api, ml, search, sql, python, design, data science, machine learning, led, algorithms, analytics, processing, excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59</v>
+      </c>
+      <c r="B15" t="n">
+        <v/>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>45063</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Faaya</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Machine Learning work from home job/internship at Faaya</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Internship</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/machine-learning-work-from-home-job-internship-at-faaya-at-faaya-3610325820?refId=%2Fbqm7BL%2BlGtUTG9QMchYVQ%3D%3D&amp;trackingId=wlsFWTI9R8cQaF3ATGwj5A%3D%3D&amp;position=10&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>About Faaya  Faaya offers cutting-edge software tools to help in the digital transformation of the fashion industry in the form of a virtual trial solution and garment creation suite.  Activity on Internshala  Hiring since May 2023  4 opportunities posted  About The Work From Home Job/internship  Faaya is seeking a dedicated ML Intern to join our team as we build our cutting-edge virtual try-on solution for the fashion industry. You will work closely with our AI team to develop, train, and improve machine learning models for our platform.  Selected Intern's Day-to-day Responsibilities Include  Assist in the development of ML algorithms for image recognition and augmented reality Collaborate with the team to gather and preprocess data Help to evaluate and improve the effectiveness of our ML models Contribute to the development and deployment of ML models on edge devices  Requirements  Current student or a recent graduate in computer science, data science, or a related field Basic understanding of machine learning principles and algorithms Experience with Python, TensorFlow or PyTorch, and OpenCV Familiarity with edge computing concepts and tools Knowledge of 3D mathematics Strong problem-solving skills and attention to detail Passion for AI and its applications in the fashion industry  Join us to gain hands-on experience in ML and contribute to the future of fashion retail!  Skill(s) required  Algorithms Data Structures Deep Learning Machine Learning Mathematics  Earn certifications in these skills  Learn Algorithms  Learn Data Structures  Learn Machine Learning  Learn Deep Learning  Who can apply  Only Those Candidates Can Apply Who  are available for the work from home job/internship can start the work from home job/internship between 16th May'23 and 20th Jun'23 are available for duration of 3 months have relevant skills and interests Women wanting to start/restart their career can also apply.  Perks  Certificate Letter of recommendation Flexible work hours Job offer  Number of openings  2  Additional Questions  Sign up to continue  Sign up/ Login with Google  OR  Email  Password  First Name  Last Name  By signing up, you agree to our Terms and Conditions .  Already registered? Login  Sign up to continue  Sign up/ Login with Google  OR  Email  Password  First Name  Last Name  By signing up, you agree to our Terms and Conditions .  Already registered? Login</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>computer science, word, git, rest, models, deep learning, app, learning, digital, opencv, it, ml, python, data science, machine learning, led, algorithms</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>41</v>
+      </c>
+      <c r="B16" t="n">
+        <v/>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>45063</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Faaya</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Machine Learning work from home job/internship at Faaya</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Internship</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/machine-learning-work-from-home-job-internship-at-faaya-at-faaya-3610325820?refId=MMEwGK70qNRql%2Fb8Z0R4cw%3D%3D&amp;trackingId=pQtisTA36UTGFi%2FzH%2F7s7Q%3D%3D&amp;position=17&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>About Faaya  Faaya offers cutting-edge software tools to help in the digital transformation of the fashion industry in the form of a virtual trial solution and garment creation suite.  Activity on Internshala  Hiring since May 2023  4 opportunities posted  About The Work From Home Job/internship  Faaya is seeking a dedicated ML Intern to join our team as we build our cutting-edge virtual try-on solution for the fashion industry. You will work closely with our AI team to develop, train, and improve machine learning models for our platform.  Selected Intern's Day-to-day Responsibilities Include  Assist in the development of ML algorithms for image recognition and augmented reality Collaborate with the team to gather and preprocess data Help to evaluate and improve the effectiveness of our ML models Contribute to the development and deployment of ML models on edge devices  Requirements  Current student or a recent graduate in computer science, data science, or a related field Basic understanding of machine learning principles and algorithms Experience with Python, TensorFlow or PyTorch, and OpenCV Familiarity with edge computing concepts and tools Knowledge of 3D mathematics Strong problem-solving skills and attention to detail Passion for AI and its applications in the fashion industry  Join us to gain hands-on experience in ML and contribute to the future of fashion retail!  Skill(s) required  Algorithms Data Structures Deep Learning Machine Learning Mathematics  Earn certifications in these skills  Learn Algorithms  Learn Data Structures  Learn Machine Learning  Learn Deep Learning  Who can apply  Only Those Candidates Can Apply Who  are available for the work from home job/internship can start the work from home job/internship between 16th May'23 and 20th Jun'23 are available for duration of 3 months have relevant skills and interests Women wanting to start/restart their career can also apply.  Perks  Certificate Letter of recommendation Flexible work hours Job offer  Number of openings  2  Additional Questions  Sign up to continue  Sign up/ Login with Google  OR  Email  Password  First Name  Last Name  By signing up, you agree to our Terms and Conditions .  Already registered? Login  Sign up to continue  Sign up/ Login with Google  OR  Email  Password  First Name  Last Name  By signing up, you agree to our Terms and Conditions .  Already registered? Login</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>computer science, word, git, rest, models, deep learning, app, learning, digital, opencv, it, ml, python, data science, machine learning, led, algorithms</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>131</v>
+      </c>
+      <c r="B17" t="n">
+        <v>132</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>45061</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>OpeninApp</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>AI/ML Engineer (On-Site) - Intern</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Internship</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/ai-ml-engineer-on-site-intern-at-openinapp-3607943927?refId=n05x%2Bj4PpBsT2234tP2yaw%3D%3D&amp;trackingId=vSLjfv0tFtz1AO9D3kFqtg%3D%3D&amp;position=7&amp;pageNum=5&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>About Listed  We are a lab building products for the creator economy. Why so, because we are on a mission to empower the individual to realise/unleash their full potential. Following are some of our flagship products:  OpeninApp  Almost all your favourite creators on Instagram share links to their latest YouTube videos or YouTube channels in their bio or stories. But whenever you tap on those links, you get redirected to the YouTube website instead of the YouTube app. And here you can’t watch the video in full screen nor can you like it, comment on it or subscribe to the channel.  Ever wondered why it is so? That’s because Instagram has something called a Built—IN-Browser that opens up instead of opening the app you wanted to open. Which is not cool at all….And this is not just so for IG but for all your favourite social media apps eg. YouTube, LinkedIn, Twitter, Snapchat, Telegram, Quora etc.  So we fixed this problem of sub-optimal user experiences by building a tool that ensures all social media links open in the apps they should. It’s called OpeninApp. And it is already been loved by over 20,000 influencers &amp; brands including the likes of Munawar Faruqui, Raj Shamani, Riva Arora, Aishwarya (Ranjnikant-ji’s daughter), trakin Tech, Mamaearth etc. And has been used by 55Mn+ users.  Listed.fans  We Listians find it very painful that unlike tech entrepreneurs there’s little to no capital available for our darling social media creators or influencers, the wonderful people who entertain us, educate us and so so much more. And this is not just the case for social media creators but individual performers of any form be they are, cricketers, singers, dancers, actors etc… So, Listed helps rising creators get funded, just like startups by been-there done-that's like mega-influencers, agency owners and brand CXOs to launch and accelerate their own creator-ships. In return, these rising stars pledge to share a portion of their future incomes with their investors for a certain fixed period of time.  So, if you believe the gifted individuals of today will overshadow the companies of yesterday, and in doing so, have the right to capital &amp; guidance, then welcome to the tribe.  So if you are someone who is passionate about social media and wants to improve User Experiences for a Billion+ people, then welcome home…  Who Should apply?  If you are someone who has - Understanding and hands-on experience with AI/ML Modelling, Libraries, frameworks, and Tools. Knowledge of Python, SQL/NoSQL. Desire to be hands-on and help invent AI for creators and Influencers. Relevant education or certification in AI/ML.  Please Apply!  Shortlisting Criteria  Nothing fancy, you will be given a task to prove your skills.  Why work with us?  Infinite creative freedom.  This is your opportunity to prove your creativity to the world  What's the company culture like?  Extremely passionate.  We’re only looking for people who want to prove to the world how gifted they are or who really really want to truly democratize access to capital.  This is not a job, it’s a mission.  Contact  Got more questions, feel free to write to us at careers@listed.fans</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>linkedin, app, it, api, ml, sql, python, building, web, led</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>134</v>
+      </c>
+      <c r="B18" t="n">
+        <v>135</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>45058</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Ampstek</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Data Scientist-Machine Learning</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Bengaluru North, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/data-scientist-machine-learning-at-ampstek-3603542463?refId=n05x%2Bj4PpBsT2234tP2yaw%3D%3D&amp;trackingId=8BrZz4Uh6OLRxT5GQazItw%3D%3D&amp;position=10&amp;pageNum=5&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Job Description Develop and implement machine learning models and algorithms for data analysis and prediction Work with data engineers to identify, collect, and preprocess data for use in machine learning models Evaluate and optimize the performance of machine learning models using statistical metrics and techniques Collaborate with cross-functional teams to understand business needs and identify opportunities for applying machine learning to solve problems Communicate findings and insights from machine learning models to stakeholders in a clear and concise manner Strong knowledge of machine learning techniques and algorithms, such as regression, classification, clustering, neural networks, etc Strong problem-solving and analytical skills Excellent communication and collaboration skills Role: Data Scientist ,  Industry Type: IT Services &amp; Consulting ,  Department: Data Science &amp; Analytics ,  Employment Type: Full Time, Permanent  Role Category: Data Science &amp; Machine Learning  Education  UG: Any Graduate  PG: Any Postgraduate  Key Skills  Machine learning</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>models, data analysis, app, learning, it, data science, machine learning, led, algorithms, analytics, excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>23</v>
+      </c>
+      <c r="B19" t="n">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>45058</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ConveGenius</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>AI/ML Engineer - Intern</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Internship</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Greater Delhi Area</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/ai-ml-engineer-intern-at-convegenius-3600802416?refId=p9A%2BbPSQjHH8tB9RZuQYUw%3D%3D&amp;trackingId=Sp8WMZhhPe3YZKOCV0hA8Q%3D%3D&amp;position=24&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Job Title: AI/ML Engineer - Intern  About The Company  ConveGenius is a leading Conversational AI company that is democratizing educational and  knowledge services for the mass market. Their knowledge bots have 35M users today.  ConveGenius is building an omniverse on Conversational AI for the developer ecosystem to  build together. We are looking for self-driven individuals who love to find innovative solutions  and can perform under pressure. An eye for detail and being proud of produced code is the  must-have attributes for this job.  About The Role  At ConveGenius, we are committed to creating an inclusive and collaborative work  environment that fosters creativity and innovation. Join our AI Team as an AI/ML  Engineering Intern, with the focus on development of cutting-edge technologies, making a  real life difference in the lives of millions of users. You will be involved in a wide range of  projects, from designing and building AI capabilities for our swiftchat platform, and analysing  large datasets.  Responsibilities  Develop and implement state-of-the-art NLP, Computer Vision, Speech techniques.  Collaborate with other researchers to develop innovative AI solutions and services to  be used to improve our platform capabilities.  Conduct research and experiments in machine learning, data mining, and related  fields to support the development of AI techniques.  Qualifications  Pursuing or recently completed bachelor's or master's degree in Computer Science,  Engineering, or a related field with experience in machine learning and data analysis.  Experience working with few of DL/ML techniques such as classification, information  retrieval, clustering, semi-supervised learning, CNN, RNN etc..  Experience in computer vision, audio/speech technologies is a plus.  Strong programming skills in Python, node.js or other relevant programming  languages.  Familiarity with machine learning libraries, such as TensorFlow, Keras, PyTorch,  scikit-learn, Conversational frameworks like Rasa, DialogFlow, Lex, etc.  Strong analytical and problem-solving skills, with the ability to think out of the box.  Self-starter with the ability to work independently and in a team environment.  Duration And Compensation  This is a full-time internship position for 3-6 months, with the possibility of extension.  Compensation Will Be Commensurate With Experience And Skills.  Skills: nlp,clustering,rasa,cnn,tensorflow,lex,scikit-learn,speech,classification,dialogflow,node.js,rnn,pytorch,python,keras,data mining,information retrieval,data analysis,computer vision,machine learning,audio/speech technologies,conversational ai,semi-supervised learning,ai/ml engineering intern,develop innovative ai solutions,designing and building ai capabilities</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>computer science, research, data analysis, datasets, keras, learning, project, it, nlp, ml, search, inform, python, design, building, machine learning, led</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>149</v>
+      </c>
+      <c r="B20" t="n">
+        <v>150</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>45058</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Whatfix</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>AI/ML Engineer</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/ai-ml-engineer-at-whatfix-3604864809?refId=n05x%2Bj4PpBsT2234tP2yaw%3D%3D&amp;trackingId=0k5xEQ7kEztaGunffjQOyQ%3D%3D&amp;position=25&amp;pageNum=5&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Who are we?  Whatfix is the #1 Digital Adoption Platform (DAP) for Enterprises. We empower anyone, anywhere to have successful experiences with the technology they use every day, achieving greater knowledge, capability, and productivity for themselves and their organizations. The company has six offices globally in the US, India, UK, Germany, and Australia, and works with Fortune 500 companies around the world. Whatfix has raised $140 million to date and is backed by marquee investors including Softbank, Sequoia, Dragoneer, and Cisco Investments.  Key Responsibilities: Develop advanced computer vision and state-of-the-art deep learning models for building an understanding of software applications and using the understanding to act as an agent. Research &amp; Implement ML and Deep learning algorithms for production Build infrastructure needed for AI/ML systems, such as model inference, automated (re-)training, monitoring, explainability, etc. Participate in Code Review and process improvement. Stay abreast of new AI research from leading labs by reading papers and experimenting with code Help AI product managers and business stakeholders understand the potential and limitations of AI for your Products Run necessary ML tests and benchmarks for model validation Fine-tune, retrain, and scale existing model deployments Articulate complex problems by communicating viable architecture and design approaches in a clear and concise manner Implement computationally complex model training and software applications understanding Neural networks and integrate them into the Whatfix saas platform. Design and develop highly scalable, reliable, and fault-tolerant systems for one of the world’s fastest-growing startups Envision project goals, and product architectural solutions with a high focus on detail to ensure successful implementation Occasionally participate in customer demos &amp; provide inputs wherever required Conduct research to provide technical solutions at scale for real-world challenges in various scenarios  Our ideal AI/ML Engineer: 4-7 years experience and a strong analytical background, with a degree in computer science, engineering, machine learning, artificial intelligence, deep learning, algorithms, statistics, or a similar field desirable Direct work experience and proficiency in a few of the below technologies and frameworks: Solid experience in building systems with vision processing, deep neural networks, and reinforcement learning Solid understanding of working with Knowledge graphs for AI projects Strong understanding of concepts related to Machine Learning and Statistics Deep understanding of the family of CNN algorithms such as R-CNN, Fast R-CNN, Faster R-CNN, YOLO, etc Solid hands-on knowledge of using Deep learning libraries such as PyTorch, Fastai, TensorFlow, OpenCV, etc. Proficiency in the implementation of algorithms and the use of advanced data structures to solve problems in computing. A solid foundation in the principles of computer science is desired. Hands-on programming skills in Python Hands-on experience with Front end technologies like - HTML, CSS, and JavaScript is a plus Publication of DL-based research work in top-tier conferences is a plus Previous experience with transformer/vision transformer-based models is a plus Working knowledge of finding ways to quickly experiment and deploy at least 2 DL-based solutions to production Understanding distributed computing using Spark is a plus Excellent communication and technical skills A can-do attitude and entrepreneurial spirit to conceive ideas, turn challenges into opportunities and build products Ability to collaborate effectively with highly technical resources in a fast-paced environment Ability to solve complex challenges/problems and rapidly deliver innovative solutions Qualification Bachelor or Master in Computer Science  Why Whatfix? Accelerated Growth and Expansion Top decile Y-o-Y revenue growth rate of 65% Doubled the workforce since 2021 Raised $140 million to date Tripled the valuation since 2020 Listed among fastest-growing companies in North America in 2021 and 2022 in Deloitte Technology Fast 500™ Listed as top 6 2023 Best Tech Startups in San Jose by Tech Tribune Top 20 fastest-growing SaaS companies worldwide in the SaaS 1000 list in 2022 Cemented Industry Leadership Leader in the first-ever Forrester New Wave™: Digital Adoption Platforms, Q4 2022 A Leader for the third consecutive year in the Everest Group DAP Peak Matrix 2022 Recognized in the 2022 Gartner Market Guide for Digital Adoption Platforms Unique Exposure - With 80% of revenue getting generated from outside India and 75 Fortune 500 customers across the world, Whatfixers get the unique opportunity to work closely with the top enterprises from day one. Customers are at the heart of everything Consistently scored an unprecedented 100th Percentile B2B SaaS Customer NPS during this time period, according to GrowthScore, and earned 99.5% CSAT score over the last two years - 21% higher than the Software Industry average. 4.6/5 star ratings by both Gartner Peer Insights and G2 Crowd Reviews. Recognized as “Top Rated” by TrustRadius. Enjoy several accolades from Stevies, Golden Bridge Awards, CXA, and Globee Awards for excellence in customer support Whatfixers come first Top 20 Places to Work For, Worldwide by Glassdoor &amp; Battery Ventures (2022) based on Glassdoor rating of 4.5 99% approval rate of the CEO Top 6 Best Tech Startups in San Jose by The Tech Tribune Recognized as Great Place to Work 2021-2022 Winner of the Stevie Award for being one of the Best Employers, Globally LinkedIn - Top 5 Startups to Work For in 2020! Flexible Work Location - Work from any of the offices in Gurgaon / Gurugram &amp; Bangalore / Bengaluru as per your convenience Trusted by our investors SoftBank Vision Fund2 Sequoia Capital India Dragoneer Investment Group F-Prime Capital Stellaris Venture Partners Cisco Investments Eight Roads Ventures Helion Ventures Note: We strive to live and breathe our Cultural Principles and encourage employees to demonstrate some of these core values - Customer First; Empathy; Transparency; Fail Fast &amp; Scale Fast; No Hierarchies for Communication; Deep Dive &amp; Innovate; Trust, Do it as you own it; We are an equal opportunity employer and value diverse people because of and not in spite of the differences. We do not discriminate on the basis of race, religion, color, national origin, ethnicity, gender, sexual orientation, age, marital status, veteran status, or disability status  Perks &amp; Benefits: Uncapped Incentives and Bonus plans (GTM teams) Best-in-class medical Insurance coverage. Education Sponsorship Free Lunch &amp; Dinner Buffet Doorstep Cab Drop Facility (10 PM onwards) Internal Job Transfer &amp; global mobility programs Scope to represent Whatfix at global events (especially GTM teams) Travel to meet our global customers &amp; prospects in person (especially those in GTM teams)</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>computer science, git, rest, research, models, spark, advanced, linkedin, deep learning, app, learning, digital, gold, opencv, project, it, color, api, ml, search, python, design, building, machine learning, led, algorithms, processing, excel, infrastructure</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>51</v>
+      </c>
+      <c r="B21" t="n">
+        <v>52</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>45057</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Gurgaon, Haryana, India</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/machine-learning-engineer-at-gemini-3547593138?refId=%2Fbqm7BL%2BlGtUTG9QMchYVQ%3D%3D&amp;trackingId=NxPs14C1uqTqdGXwHWTOPA%3D%3D&amp;position=2&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>About The Company  Gemini is a global crypto and Web3 platform founded by Tyler Winklevoss and Cameron Winklevoss in 2014. Gemini offers a wide range of crypto products and services for individuals and institutions in over 70 countries.  Our flagship product, the Gemini Exchange, was built to be a compliant and secure platform to buy, sell, and store crypto. Our suite of retail products includes ActiveTrader, a high-performance platform for advanced traders. Gemini also offers the Gemini Credit Card providing real-time crypto rewards, the Gemini dollar (GUSD), a U.S. dollar-backed stablecoin, and Gemini Staking, allowing users to securely stake their tokens on-chain and receive rewards. Nifty Gateway, Gemini's NFT platform, is the world's premier marketplace for NFTs and digital art.  Gemini customers also have access to a wide range of institutional products tailor-made for high-net-worth individuals, asset and wealth managers, and hedge funds and liquidity providers seeking exposure to crypto. Customers looking to place large orders can use Gemini eOTC, a fully-electronic over-the-counter trading platform built for high-value bulk orders. For wealth management professionals, we offer a unique destination for their clients’ crypto portfolios from a single platform, and we enable fully electronic clearing and settlement of off-exchange crypto trades.  The Department: Analytics  Data and analytics are central to all of our business functions and drive many of our most important decisions at Gemini. The Analytics team is responsible for data architecture, data engineering, business intelligence, machine learning, and data governance functions that shape the way data is stored and leveraged across Gemini. Data engineers and Machine Learning engineers make up the Analytics team are responsible for building the primary decision support system that derives continuous value by  enabling individuals and various functional groups to make data driven informed decisions via our reliable data processes, data products and advanced analytics ability. The projects executed by the team cover a wide-range of topics including user acquisition and customer journey, cryptocurrency performance, product analytics, order book analytics, risk analytics, enabling automated and scalable blockchain based reconciliation systems, building predictive models all the way to enabling anomaly and fraud detection.  The Role: Machine Learning Engineer  We are growing the Data Science team and AI stack at Gemini. We are looking for machine learning engineers who are interested in solving diverse and complex business problems. You will leverage your experience and communication skills to work across business teams to build and develop innovative machine learning models and algorithms.  Responsibilities  Design, develop, and implement machine learning and AI models to optimize across fraud, crypto exchange trading, anti money laundering and NFTs. Analyze large and complex datasets to identify patterns for feature engineering, trends, and anomalies in the market and develop predictive models that can be used for decision-making. Collaborate with software developers and stakeholders to design and implement machine learning systems that can improve the speed and accuracy of the machine learning models. Monitor and analyze the performance of our machine learning models and systems and make necessary improvements to ensure their effectiveness.  Qualifications  Masters or PhD in Statistics, Electrical Engineering, Computer Science or related fields 5+ years of work experience in analytics and data science domain focusing on business problems 5+ years of experience deploying statistical and machine learning models in production 5+ years of experience in integrating data science models into applications Strong skills in programming languages like Python and SQL Expert knowledge with classical machine learning across supervised and unsupervised learning In depth knowledge with Transformers, Generative AI and Deep Learning Experience with one or more big data tools and technologies like Snowflake, Databricks, S3, EKS, AWS, Hadoop, Spark Enthusiasm for Blockchain and crypto and power to unlock economic freedom  It Pays to Work Here  The Compensation &amp; Benefits Package For This Role Includes  Competitive base salary Benefits Discretionary annual bonus Discretionary equity  At Gemini, we strive to build diverse teams that reflect the people we want to empower through our products, and we are committed to equal employment opportunity regardless of race, color, ancestry, religion, sex, national origin, sexual orientation, age, citizenship, marital status, disability, gender identity, or Veteran status. Equal Opportunity is the Law, and Gemini is proud to be an equal opportunity workplace. If you have a specific need that requires accommodation, please let a member of the People Team know.</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>computer science, git, rest, aws, models, spark, advanced, datasets, deep learning, app, learning, digital, project, it, color, store, sql, inform, python, design, building, web, data science, machine learning, led, algorithms, analytics</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>45056</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Piramal Capital &amp; Housing Finance Limited</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/data-scientist-at-piramal-capital-housing-finance-limited-3598811671?refId=p9A%2BbPSQjHH8tB9RZuQYUw%3D%3D&amp;trackingId=5nRwjFCgeZLu5oEJRCh8WA%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Responsibilities  Ability to work with large data sets and present conclusions to key stakeholders. Develop a clear understanding of the client's business issue to inform the best approach to the problem. Root-cause analysis Define data requirements for creating a model and understanding the business problem Clean, aggregate, analyze, interpret data, and carry out quality analysis of it Set up data for predictive/prescriptive analysis Development of AI/ML models or statistical/econometric models. Working along with the team members Looking for insight and creating a presentation to demonstrate these insights Supporting development and maintenance of proprietary marketing techniques and other knowledge development projects  Requirements  Master's in Economics, Statistics, Computer Sciences, Mathematics, Operational Research, CA or Engineering from a reputed college Hands-on experience in Analytics Tools - R, Python, SQL, Power BI, MS Excel. Predictive Analytics - Machine Learning Algorithms, Logistics &amp; Linear Regression, Decision Tree, Clustering. Exploratory Data Analysis - Data Preparation, Data Exploration, and Data Visualization. Job Conditions: 1-3 years of experience in Financial services (Retail lending) industry Strong expertise in Python + Model Development / Validation + ML + NLP + Marketing Analytics Values Knowledge Expertise - we strive for a deeper understanding of our domain Innovation - we aspire to do things creatively Action Entrepreneurship - we are empowered to act decisively and create value Integrity - we are consistent in our thoughts, speech and actions Care Trusteeship - we protect the interests of our customers, community, employees, partners and shareholders Humility - we aspire to be the best, yet strive to be humble</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>computer science, rest, research, power bi, models, maintenance, data analysis, app, learning, project, it, nlp, ml, data visualization, search, sql, visualization, inform, python, machine learning, led, algorithms, analytics, excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>45055</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ShyftLabs</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Software Engineer - Frontend</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hyderabad, Telangana, India</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/software-engineer-frontend-at-shyftlabs-3597812331?refId=p9A%2BbPSQjHH8tB9RZuQYUw%3D%3D&amp;trackingId=nLB7RxrZlLiaNskbwcPnDA%3D%3D&amp;position=21&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>We are looking for strong developers with a passion for building products, who love to work in small teams and have an entrepreneurial spirit. You will get an opportunity to learn immensely and grow with the company in a fast-paced environment. Our teams are located in Hyderabad, India and Toronto, Canada.  Responsibilities  You are responsible for product development, testing, deployment, and support. Develop/Enhance existing applications as per product requirements Manage individual priorities, deadlines, and deliverables. Work with a small cross-functional team of engineers, PMs, data engineers, and designers Help team in documenting changes made in different artifacts Help team members in the knowledge-sharing session Ability to learn other coding languages as needed.  Requirements  Bachelor's degree in Computer Science or equivalent practical experience. 1-3 years of experience with RESTful API 1-3 years of experience delivering products or services using web technologies Strong knowledge of HTML, CSS, and JavaScript Experience working with Node.js Experience with frontend technologies like Angular, React Version control systems (Git) Any Experience working on the AWS or Google Cloud platform You're proficient with any of the technologies: Express.js, MongoDB, MySQL, Redis, and Docker</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>computer science, git, rest, aws, app, it, redis, api, ml, sql, design, building, web, mysql, led, cloud</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>66</v>
+      </c>
+      <c r="B24" t="n">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>45052</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Covalense Global</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Data Scientists</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Hyderabad, Telangana, India</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/data-scientists-at-covalense-global-3598682221?refId=%2Fbqm7BL%2BlGtUTG9QMchYVQ%3D%3D&amp;trackingId=1DQ5nROgG%2B13DDKJq%2BEg%2BQ%3D%3D&amp;position=17&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Exp: 7-10 years; Job Type Full Time Years of Experience 7 years Job Description Experience in AI &amp; ML Advanced degree in an analytical field (e.g., Data Science, Computer Science, Engineering, Applied Mathematics, Statistics, Data Analysis, Operations Research). Strong understanding of advanced data mining techniques, curating, processing and transforming data to produce sound datasets. Strong understanding of the Machine Learning lifecycle feature engineering, training, validation, scaling, deployment, scoring, monitoring, and feedback loop. Experience in analyzing complex problems and translating it into an analytical approach. Experience in Supervised and Unsupervised Machine Learning including Classification, Forecasting, Anomaly Detection, Pattern Detection, Text Mining, using variety of techniques such as Decision trees, Time Series Analysis, Bagging and Boosting algorithms, Neural Networks, Deep Learning. Experience with analytical programming languages, tools and libraries (Python ecosystem preferred, but R will be considered). Experience in SQL and relational databases, Big Data technologies e.g. Python or Python R / Spark Good understanding of programming best practices and building for re-use. Strong communication, partnership and teamwork skills. Ability to work in an extremely fast paced environment, meet deadlines, and perform at high standards with limited supervision.</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>computer science, research, databases, spark, data analysis, advanced, datasets, deep learning, app, learning, it, relational databases, ml, search, sql, python, building, operations, data science, machine learning, algorithms, processing, database</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>22</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>45052</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Epsilon India</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Software Engineer 2</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/software-engineer-2-at-epsilon-india-3361254604?refId=p9A%2BbPSQjHH8tB9RZuQYUw%3D%3D&amp;trackingId=pXWzFqTZM1haNqp%2FbheOdw%3D%3D&amp;position=23&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Company Description  When you’re one of us, you get to run with the best. For decades, we’ve been helping marketers from the world’s top brands personalize experiences for millions of people with our cutting-edge technology, solutions and services. Epsilon’s best-in-class identity gives brands a clear, privacy-safe view of their customers, which they can use across our suite of digital media, messaging and loyalty solutions. We process 400+ billion consumer actions each day and hold many patents of proprietary technology, including real-time modeling languages and consumer privacy advancements. Thanks to the work of every employee, Epsilon India is now Great Place to Work-Certified™. Epsilon has also been consistently recognized as industry-leading by Forrester, Adweek and the MRC. Positioned at the core of Publicis Groupe, Epsilon is a global company with more than 8,000 employees around the world. For more information, visit epsilon.com/apac or our LinkedIn page.  Job Description  About Data team :  At the heart of everything we do is data and this team. Our premium data assets empower the team to drive desirable outcomes for leading brands across industries. Armed with high volumes of transactional data, digital expertise and unmatched data quality, the team plays a key role in improving all our product offerings. Our data artisans are keen on embracing the latest in technology and trends, so there’s always room to grow and something new to learn here.  Why we are looking for you You have hands on experience in - Kafka, Flume, Spark, Java/Scala, Hadoop, HDFS, Hive,SQL to work with Epsilon Market place team You have hands on experience in coding languages like Python &amp; Scala . You have hands on experience in fine tuning Spark Jobs . You are very good in handling &amp; working closely with key stakeholders of the Project, you must be able to communicate and keep them informed on overall health on projects impacting Data platforms. You have exposure on Airflow, Docker container, noSQL databses like Hbase. What You Will Enjoy In This Role As part of Data Pipeline team will be processing Billions of data per day from multiple region/ data center’s. Working on processing Ad-server data into Storage layer where further analytics will be done Working on Bigdata technologies like Flume, Kafka, Spark, and loads the aggregated/processed data into HDFS. Working on identifying a key area of ownership the team has, pipelining data. Working on intraday (hourly, 5 minute ,15 minute) aggregations using Spark Structured Streaming to jobs performed. Working on the data assets which will be further used in performance measurement and efficacy of the defined solution, as well as feeding business analytics and data mining. What You Will Do End to end development of automated receipt of anonymized data End to end development of processing of logs data Data center to data center replication Data processing using Flume, Kafka , Spark jobs, Airflow,Docker etc Migration of production data assets to downstream consuming systems Disaster Recovery and Business Continuity implementations Workload Performance Management and Tuning Ensuring that coded solutions meet functional business requirements for ad serving and measurement Application specific controls and scheduling Custom solution building for syndicated and third party datasets Qualifications Bachelor’s Degree in Computer Science or equivalent degree is required 3 – 5 years of data engineering experience around database marketing technologies and data management, and technical understanding in these areas. Experience in coding using Java or Scala Experience with scheduling applications like Airflow, Oozie with complex interdependencies Good hands on experience in opensource components like Kafka, Flume, Spark, Hadoop, HDFS. Participate in code reviews providing constructive feedback and accepting feedback on own code. Experience in No SQL Databases (ex: Hbase) ,Docker containers a plus Excellent written and verbal communication skills. Excellent Analytical and problem solving skills Ability to diagnose and troubleshoot problems quickly</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>computer science, git, rest, databases, spark, datasets, linkedin, app, digital, airflow, project, it, tuning, sql, inform, python, building, analytics, processing, excel, database</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>47</v>
+      </c>
+      <c r="B26" t="n">
+        <v>48</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>45052</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Covalense Global</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Data Scientists</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Hyderabad, Telangana, India</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/data-scientists-at-covalense-global-3598682221?refId=MMEwGK70qNRql%2Fb8Z0R4cw%3D%3D&amp;trackingId=hjNdZxwf5gDY2vRhk%2FFmog%3D%3D&amp;position=23&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Exp: 7-10 years; Job Type Full Time Years of Experience 7 years Job Description Experience in AI &amp; ML Advanced degree in an analytical field (e.g., Data Science, Computer Science, Engineering, Applied Mathematics, Statistics, Data Analysis, Operations Research). Strong understanding of advanced data mining techniques, curating, processing and transforming data to produce sound datasets. Strong understanding of the Machine Learning lifecycle feature engineering, training, validation, scaling, deployment, scoring, monitoring, and feedback loop. Experience in analyzing complex problems and translating it into an analytical approach. Experience in Supervised and Unsupervised Machine Learning including Classification, Forecasting, Anomaly Detection, Pattern Detection, Text Mining, using variety of techniques such as Decision trees, Time Series Analysis, Bagging and Boosting algorithms, Neural Networks, Deep Learning. Experience with analytical programming languages, tools and libraries (Python ecosystem preferred, but R will be considered). Experience in SQL and relational databases, Big Data technologies e.g. Python or Python R / Spark Good understanding of programming best practices and building for re-use. Strong communication, partnership and teamwork skills. Ability to work in an extremely fast paced environment, meet deadlines, and perform at high standards with limited supervision.</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>computer science, research, databases, spark, data analysis, advanced, datasets, deep learning, app, learning, it, relational databases, ml, search, sql, python, building, operations, data science, machine learning, algorithms, processing, database</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>11</v>
+      </c>
+      <c r="B27" t="n">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>45051</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Trexquant Investment LP</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Data Scientist (INDIA)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Gurugram, Haryana, India</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/data-scientist-india-at-trexquant-investment-lp-3598134450?refId=p9A%2BbPSQjHH8tB9RZuQYUw%3D%3D&amp;trackingId=mHM2Lg6obClMjy4iCZj1ig%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>As a member of the Data team at Trexquant, you will be involved in parsing and analyzing large data sets, working on discovering and obtaining new sources of data, and collaborating with the Alpha and Strategy Research team to build predictive machine learning models.  Responsibilities Explore and learn about a wide range of data sets that are used to develop signals for systematic quantitative strategies Develop a framework to automatically download and monitor hundreds of data sources that are vital to our trading and research Create data visualizations to gain insight on large data sets, such as order-by-order tick data, present findings and results Research and implement machine learning techniques to identify patterns in large data sets and create new derived variables  Requirements A degree in a technical discipline (computer science, mathematics, statistics, physics, etc.) Experience with statistical analysis and managing of large data sets Knowledge of Linux, Bash, Python, and SQL Database Ability to work independently and take projects to completion, quickly learn new systems, think creatively and pay attention to details  Benefits Competitive compensation, with opportunity for outstanding monetary success Work in a collaborative and friendly environment, participate in decision-making process for research direction, and have opportunity to lead on new ideas</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>computer science, research, models, learning, project, it, data visualization, search, sql, visualization, python, machine learning, led, linux, database</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>92</v>
+      </c>
+      <c r="B28" t="n">
+        <v>93</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>45051</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SAZ India</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Big Data Engineer- Fresher (2022-23 Batch)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/big-data-engineer-fresher-2022-23-batch-at-saz-india-3604506552?refId=3XAhmb0E78rdz8IvvT6w4Q%3D%3D&amp;trackingId=dhFgdNnhczGB89gNXOuO6g%3D%3D&amp;position=18&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>We are looking for an experienced data engineer to join our team. You will use various methods to transform raw data into useful data systems. For example, you’ll create algorithms and conduct statistical analysis. Overall, you’ll strive for efficiency by aligning data systems with business goals.  To succeed in this data engineering position, you should have strong analytical skills and the ability to combine data from different sources. Data engineer skills also include familiarity with several programming languages and knowledge of learning machine methods.  If you are detail-oriented, with excellent organizational skills and experience in this field, we’d like to hear from you.  Responsibilities  Analyze and organize raw data Build data systems and pipelines Evaluate business needs and objectives Interpret trends and patterns Conduct complex data analysis and report on results Prepare data for prescriptive and predictive modeling Build algorithms and prototypes Combine raw information from different sources Explore ways to enhance data quality and reliability Identify opportunities for data acquisition Develop analytical tools and programs Collaborate with data scientists and architects on several projects  Requirements And Skills  Previous experience as a data engineer or in a similar role or fresher can also apply. Technical expertise with data models, data mining, and segmentation techniques Knowledge of programming languages (e.g. Java and Python) Hands-on experience with SQL database design Great numerical and analytical skills Degree in Computer Science, IT, or similar field; a Master’s is a plus Data engineering certification (e.g IBM Certified Data Engineer) is a plus Self-motivated with a results-driven approach Aptitude in delivering attractive presentations High school degree Skills: data warehousing,etl,sql,python,java,hadoop,hive,spark,nosql databases,cloud computing,aws,azure,gcp,data modeling,data mining,data governance,data visualization,communication,project management,data lake,data quality,data architecture</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>computer science, aws, databases, models, spark, data analysis, app, learning, project, it, data visualization, sql, visualization, inform, python, etl, design, led, algorithms, cloud, excel, database</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>129</v>
+      </c>
+      <c r="B29" t="n">
+        <v/>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>45051</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Statinfer</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Data Science And Machine Learning work from home job/internship at Statinfer</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Internship</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/data-science-and-machine-learning-work-from-home-job-internship-at-statinfer-at-statinfer-3598738618?refId=n05x%2Bj4PpBsT2234tP2yaw%3D%3D&amp;trackingId=cgO48jrz9Na6knpmao4VkQ%3D%3D&amp;position=5&amp;pageNum=5&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>About Statinfer  Website  Statinfer is a data science e-learning startup. We deliver corporate training and self-paced online courses on data science, business analytics, machine learning and deep learning related topics.  Activity on Internshala  Hiring since August 2016  29 opportunities posted  12 candidates hired  About The Work From Home Job/internship  We are searching for an intern who possesses exceptional intelligence and the ability to work independently with minimal supervision. Our team is currently focused on creating a groundbreaking mobile application called "DataRace," which is designed to provide users with an immersive experience in data science interview and exam preparation.  https://play.google.com/store/apps/details?id=com.statinfer.quiz  Selected Intern's Day-to-day Responsibilities Include  Designing and building machine learning and data science models to enhance our existing application. Working on data science consultation projects that require the attention of our interns Working on these projects alongside our experienced data scientists  Requirements  Familiarity with programming languages such as Python, R, and SQL is preferred Prior experience in data analysis or data modeling is a plus The ability to work effectively as part of a team is essential, as you will be collaborating with other interns and data scientists on various projects The internship may involve working remotely or in person at our office, depending on the circumstances and location of the candidate  This is a great opportunity for anyone interested in pursuing a career in data science or software development to gain valuable experience in a fast-paced, dynamic environment.  Skill(s) required  Data Analytics Data Science Deep Learning Machine Learning MS-Excel Natural Language Processing (NLP) Power BI Python SQL Tableau  Earn certifications in these skills  Learn MS-Excel  Learn Python  Learn Machine Learning  Learn Data Analytics  Learn Data Science  Learn Tableau  Learn Deep Learning  Learn SQL  Learn Power BI  Learn Voice App Development  Who can apply  Only Those Candidates Can Apply Who  are available for the work from home job/internship can start the work from home job/internship between 3rd May'23 and 7th Jun'23 are available for duration of 2 months have relevant skills and interests Women wanting to start/restart their career can also apply.  Perks  Certificate Letter of recommendation Flexible work hours 5 days a week Job offer  Additional Information  Job offer: On successful conversion to a permanent employee, the candidate can expect a salary of Rs. 7 to 9 Lac/annum  Number of openings  2  Additional Questions  Sign up to continue  Sign up/ Login with Google  OR  Email  Password  First Name  Last Name  By signing up, you agree to our Terms and Conditions .  Already registered? Login  Sign up to continue  Sign up/ Login with Google  OR  Email  Password  First Name  Last Name  By signing up, you agree to our Terms and Conditions .  Already registered? Login</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>word, rest, power bi, models, data analysis, deep learning, app, learning, tableau, project, it, store, nlp, search, sql, inform, python, data analytics, design, building, web, data science, machine learning, led, analytics, processing, excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>8</v>
+      </c>
+      <c r="B30" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>45051</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Algorithma</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>AI Engineer</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Kochi, Kerala, India</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/ai-engineer-at-algorithma-3593851750?refId=p9A%2BbPSQjHH8tB9RZuQYUw%3D%3D&amp;trackingId=gsYAe%2BYfulcS5l1nrqHoug%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>We are seeking an experienced AI Engineer with expertise in Machine Learning to join our team. As an AI Engineer, you will be responsible for developing and implementing algorithms, models, and systems that can learn from data and improve over time. You will work closely with other engineers and data scientists to design, develop, and deploy AI-based solutions to meet business needs. The ideal candidate will have a strong background in computer science, machine learning, and data analysis, as well as experience with programming languages such as Python, Java, and C++.  Key Responsibilities  Design and develop machine learning algorithms, models, and systems to solve complex business problems. Collaborate with other engineers and data scientists to develop data-driven solutions that can improve business operations and performance. Implement machine learning models into production systems and ensure they are reliable, scalable, and efficient. Analyze and interpret data to identify trends and patterns that can be used to improve machine learning models. Develop and maintain data pipelines and processing systems to ensure that data is accurate and accessible for machine learning applications. Stay up-to-date with the latest developments in machine learning, AI, and related fields and apply this knowledge to improve our AI systems and processes.  Qualifications  Bachelor's or Master's degree in Computer Science, Data Science, or a related field. Strong programming skills in languages such as Python, Java, and C++. Experience with machine learning libraries and frameworks such as TensorFlow, Keras, and PyTorch. Solid understanding of data structures, algorithms, and computer science fundamentals. Knowledge of data analysis and visualization tools such as Pandas, Matplotlib, and Seaborn. Familiarity with cloud computing platforms such as AWS, Azure, and Google Cloud Platform. Strong problem-solving skills and the ability to work independently or as part of a team. Excellent communication skills and the ability to explain complex technical concepts to non-technical stakeholders.  If you are passionate about AI and machine learning, have a strong technical background, and are interested in working on cutting-edge projects, we encourage you to apply for this exciting opportunity.  Contact Us  Website: www.alphaq.ai  Email: pretty@algorithma.tech  Mob: 6238574416  Skills: 0-1 year exp,tensorflow,pytorch,keras</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>computer science, rest, aws, pandas, models, data analysis, keras, matplotlib, app, learning, project, it, visualization, python, design, operations, web, data science, machine learning, led, algorithms, cloud, processing, excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>83</v>
+      </c>
+      <c r="B31" t="n">
+        <v>84</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>45051</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Haptik</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Software Engineer 1 - Machine Learning</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Mumbai, Maharashtra, India</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/software-engineer-1-machine-learning-at-haptik-3599240462?refId=3XAhmb0E78rdz8IvvT6w4Q%3D%3D&amp;trackingId=DiAj5JPDZdrA0VPPCvBekA%3D%3D&amp;position=9&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>What we want to accomplish and why we need you?  Having reached over 500 million devices, and processing over 7 billion conversations till date, Haptik is one of the world's largest Conversational Commerce companies. We have built a robust set of technology tools that can enable any kind of conversational application, and are at the forefront of the paradigm shift of interaction from clicks to conversations. With a 400+ member strong team that includes some of the best minds in the industry, we’re truly poised to lead the Conversational Commerce revolution.  In 2019, we announced a major strategic partnership with Jio and are now a part of $65 billion internet conglomerate Reliance Jio Platforms.  To know more about the Life-at-Haptik, do check out this :3.5 minutes video :Life at Haptik  What are Haptik's Core Company Values: Ownership: You ensure things get done, get done on time, and get done correctly. Perseverance: You are resilient against setbacks, sticking with things until you succeed. Agility: You are able to adapt to change without losing momentum and vision. Impact: You deliver the highest-quality work and nothing short of excellence gives you work fulfilment. Integrity: You are trustworthy and always do the right thing, no matter how easy or hard.  What does a typical day look like for a ? Design and implement scalable and efficient solutions to engineering problems related to NLU or conversational AI. Collaborate with team members to identify, plan, and execute solutions that meet project requirements. Develop, test, and deploy high-quality, maintainable code that meets performance, security, and scalability requirements. Optimize and refactor existing codebase to improve performance, scalability, and maintainability. Use industry-standard tools and techniques to debug and diagnose complex issues that arise during development and production.  What responsibilities will you be trusted with for the : Drive the research and innovation at Haptik in result oriented direction Maintain up-to-date knowledge of technology standards, industry trends, emerging technologies, and software development best practices Have a high level of curiosity and keep exploring advancements in NLU and their applications in conversational AI. Work across all teams to understand requirements and implementation of API's/Solutioning for these tools Scale models for multiple domains with help of devops and platform teams. Make quality tech docs, participate in code reviews , automated and functional testing, and other aspects of our quality assurance process  What skills, expertise and experience are we looking for? 1+ years of experience with software development life cycle with strong experience of building backend APIs Strong concepts of object-oriented programming and proven experience in building abstractions supporting complex software Proficient with python programming, concepts of Data structures and Algorithms Experience working with SQL, NoSQL or graph Database Eagerness to take machine learning research to production Sense of responsibility, proven ownership and strong communication skills Familiarity with Docker related technologies such as Kubernetes, Kube-flow or equivalent is a bonus Knowledge of parallel computing and hands on experience with Apache spark or equivalent is a bonus Fundamental concepts of Machine Learning is a bonus  Working hard for things that we don't care about is stress, but working hard for something we love is called passion! At Haptik we passionately solve problems in order to be able to move faster and each Haptikan imbibes our key values of honesty, ownership, perseverance, communication, impact, curiosity, courage, agility and selflessness.</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>research, models, spark, commerce, app, learning, project, it, api, search, sql, apache, python, design, building, machine learning, led, algorithms, processing, excel, database</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>70</v>
+      </c>
+      <c r="B32" t="n">
+        <v/>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>45050</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Feynn Labs</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Machine Learning work from home job/internship at Feynn Labs</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Internship</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/machine-learning-work-from-home-job-internship-at-feynn-labs-at-feynn-labs-3597348078?refId=%2Fbqm7BL%2BlGtUTG9QMchYVQ%3D%3D&amp;trackingId=dNsL6daxx%2FwuavjGoz7aUw%3D%3D&amp;position=21&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>About Feynn Labs  Website  Feynn Labs is an artificial intelligence company currently focusing on AI integration in small to medium businesses and providing high-quality education in AI and machine learning. Our goal is to build a premier chain of institutes in India where students will apply and experiment with what they learn hand in hand, with our 'project-based top-down learning' approach focusing on frontier technologies like artificial intelligence, crypto-currency, quantum computing, augmented reality, etc.  Activity on Internshala  Hiring since November 2021  33 opportunities posted  Job Responsibilities  About the work from home job/internship  Using Machine Learning to prototype an AI Product/Service Using Machine Learning algorithms to perform Market Segmentation of the assigned Market Domain. Develop financial model and equation of the AI Product/Service Prototype Develop Practical Business Model of the AI Product/Service Prototype  During the Internship you will be assigned to one or more of the following projects:  Primary Projects  T0. AI Product/Service Prototyping  T1. Large Scale Market Segmentation using Machine Learning and Data Analysis  T2. Analogy Bot Generator - Data Collection and Pre-processing  T3. AI Product/Service Prototype Development  T4. Assam Flood Map Segmentation  Secondary Projects  T5. Adaptive Question System - Smart Regions Initiative  T6. Native Speech to English Text Conversion for North-Eastern Languages.  T7. Product Segmentation using Machine Learning  T8. Macro-economic Analysis and Forecasting using Machine Learning  Knowledge Requirements For The Internship Program  Probability, Statistics, Linear Algrebra, Calculas Pandas, Scikit Learn, TensorFlow, PyTorch  Skill(s) required  Data Analytics Data Science Deep Learning Machine Learning Python  Earn certifications in these skills  Learn Python  Learn Voice App Development  Learn Data Analytics  Learn Machine Learning  Learn Data Science  Learn Deep Learning  Who can apply  Only Those Candidates Can Apply Who  are available for the work from home job/internship can start the work from home job/internship between 3rd May'23 and 12th Jun'23 are available for duration of 2 months have relevant skills and interests Women wanting to start/restart their career can also apply.  Perks  Certificate Letter of recommendation Flexible work hours  Number of openings  15  Additional Questions  Sign up to continue  Sign up/ Login with Google  OR  Email  Password  First Name  Last Name  By signing up, you agree to our Terms and Conditions .  Already registered? Login  Sign up to continue  Sign up/ Login with Google  OR  Email  Password  First Name  Last Name  By signing up, you agree to our Terms and Conditions .  Already registered? Login</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>word, rest, pandas, data analysis, deep learning, app, learning, project, it, python, data analytics, web, data science, machine learning, led, algorithms, analytics, processing</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>12</v>
+      </c>
+      <c r="B33" t="n">
+        <v>13</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>45049</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>BOX8</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Data Engineer</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/data-engineer-at-box8-3591524095?refId=p9A%2BbPSQjHH8tB9RZuQYUw%3D%3D&amp;trackingId=YJl7iez5wmqOmoQa9m1qoA%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>The DataTech team is primarily responsible for the solution of business-related problems by upscaling through automation. Here, we focus on creating robust systems using the latest technological tools and continuous research just like a R&amp; amp; D Department. The team consists of a handful of techpreneurs wearing multiple hats of a Business Analyst, Data Scientist, and Data Engineer.  Responsibilities  Create and maintain optimal and resilient data pipeline architecture for greater scalability Build the infrastructure required for optimal extraction, transformation, and loading of data from a wide variety of data sources Expected to spend most of the time with Advanced SQL, Python, and other technologies for data cleaning, wrangling, munging, etc with an open mind to learn any new technologies Own the design, development, and maintenance of ongoing/ new projects, metrics, and analysis Can design dashboards to drive key business decisions Can model datasets and can partner with leaders to answer key business questions Should be analytical, creative, and quick to absorb business knowledge Work closely with other teams on topics related to data requirements, cleanliness, accuracy, etc Work with analytics and data scientist team members to assist them in productionizing their ML models or other production codes  Requirements  BE / B. Tech (Preferred - Candidates from Tier I Colleges with Computer Sc. Engineering) 1-3 years of relevant experience in the Data engineering field Experience in: Python Coding or Scripting[specifically pandas, numpy, matplotlib, scipy, and other data wrangling or analysis libraries] [additionally Tensorflow, Keras, and SciKit-Learn will be a plus] Advanced SQL Querying, shell scripting, and GIT Knowledge/hands-on experience with Airflow Understanding of Data Warehouse concepts and hands-on experience in SQL query tuning Relevant working knowledge on DBs like: Rdbms: Postgresql (Preferred) / Mysql / MS SQL server Nosql: ElasticSearch (Preferred) / MongoDB / Cassandra Data Warehouse: Amazon Redshift(Preferred), BigQuery Other DBs/storages: Firebase, GCS, S3 Knowledge of redshift administration skills Experience in cloud platform(s) (preferably AWS) Experience in Devops/ML-ops environment is a plus Knowledge of the FMCG Industry will be an add on</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>git, cassandra, research, aws, pandas, models, maintenance, advanced, datasets, keras, matplotlib, data cleaning, airflow, project, it, ml, tuning, scipy, scripting, search, sql, python, design, postgresql, mysql, led, analytics, cloud, numpy, infrastructure</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>113</v>
+      </c>
+      <c r="B34" t="n">
+        <v>114</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>45049</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Ace Talent Consulting India</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Machine Learning &amp; Artificial Intelligence Developer - Kochi / Bhubaneswar /Gurgoan</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Haryana, India</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/machine-learning-artificial-intelligence-developer-kochi-bhubaneswar-gurgoan-at-ace-talent-consulting-india-3611677355?refId=IP6FU9xOabsLJ0ZAN7PpHQ%3D%3D&amp;trackingId=9vrl7Mif9Fw3ALTYFIStgQ%3D%3D&amp;position=14&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>JOB TITLE : Machine Learning &amp; Artificial Intelligence Developer  JOB LOCATION : BHUWANESWAR /KOCHI /GURGOAN  EX : 7 TO 15 YEARS  JD- Senior resource (7 plus years of experience) with strong NLP background. Experience in NLP techniques Transformer based models PyTorch / Tensor flow Scikit-learn and other machine learning packages Python programming Machine translations and large language models (LLMs) Good To Have Skills Understanding of AWS MLOps DevOps #NLP #ML # PyTorch#itjobs #ithiring #acetalentconsulting</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>aws, models, learning, it, nlp, ml, python, machine learning</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>39</v>
+      </c>
+      <c r="B35" t="n">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>45048</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>BrandMuscle</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/data-scientist-at-brandmuscle-3619930042?refId=MMEwGK70qNRql%2Fb8Z0R4cw%3D%3D&amp;trackingId=pifDe6PNkh13%2BRmDAJaqPw%3D%3D&amp;position=15&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Position: Data Scientist / Senior Data Scientist  Location: Bangalore, India  Overview:  We are looking for a Data Scientist who will support our product, leadership and marketing teams with insights gained from analysing company data. The ideal candidate is adept at using large data sets to find opportunities for product and process optimization and using models to test the effectiveness of different courses of action. They must have strong experience using a variety of data mining/data analysis methods, using a variety of data tools, building and implementing models, using/creating algorithms and creating/running simulations. They must have a proven ability to drive business results with their data-based insights.  Responsibilities: Working with business stakeholders to define and ideate data science based solutions to existing business problems Processing, cleansing, and verifying the integrity of data to be used for analysis Creation, validation and maintenance of ML/DL models based on business requirements Recommend enhancements to current data collection procedures to include information that is relevant for building analytic systems  Skills and Qualifications: Excellent understanding of basic statistics, machine learning techniques and algorithms, and their application to business problems such recommendation systems, customer purchase propensity models, etc. Demonstrated experience in working with a diverse team showcasing excellent communication skills to articulate and understand business problems Experience with common data science toolkits, such as AzureML, AWS Sagemaker, Python, R etc. Proficiency in using query languages such as SQL, Hive, Pig etc. Experience with NoSQL databases, such as MongoDB, Cassandra, HBase. Experience with Adobe Analytics suite is a plus  Experience: - Graduate degree in Engineering/Statistics/Economics 2+ years of experience, working as a Data Scientist. Prior experience with Marketing Analytics with specific focus on Market Mix models is a plus Prior experience with simulation models – Monte Carlo, Agent based simulations is a plus</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>cassandra, aws, databases, models, maintenance, data analysis, app, learning, it, ml, sql, inform, python, building, data science, machine learning, algorithms, analytics, processing, excel, database</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>102</v>
+      </c>
+      <c r="B36" t="n">
+        <v>103</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>45048</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Global Talent Exchange</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ML/NLP Engineer - Return India</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Hyderabad, Telangana, India</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/ml-nlp-engineer-return-india-at-global-talent-exchange-3617897986?refId=IP6FU9xOabsLJ0ZAN7PpHQ%3D%3D&amp;trackingId=mVN3ZcerQQvUfgb0pg7f7Q%3D%3D&amp;position=3&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Your motherland is calling you home!  India's technology industry has seen an exponential rise to reach a whopping $227 Billion in revenue this year and is now the third-largest startup ecosystem in the world. The country is making major progress in driving transformation at lightning speed. These initiatives have given rise to a plethora of opportunities and organizations are seeking only the very best professionals to spearhead the revolution that is underway.  You could be the Game Changer your country needs.  Apply now!  Job Description  Job responsibilities Define appropriate datasets for training the model and evaluating test results Define validation strategies, and deploy data models Train data models and fine-tune their hyperparameters Perform statistical analysis, and refine models Extend and maintain ML libraries and frameworks Minimum Requirements Bachelor's/Master's degree in computer science (or equivalent experience) 3+ years of experience as an ML/NLP engineer (rare exceptions for skilled devs) Experience in text representation techniques, statistics, classification algos Proficiency in programming languages such as Python, Java, etc. Experience with ML frameworks (Keras or PyTorch) &amp; libraries (Scikit-learn, NLTK) Fluency in the English language to collaborate with engineering managers Preferred Skills Knowledge of source control systems (Git, merging, branching) Ability to handle large unstructured data sets and perform data analysis Experience in Unix/Linux including basic commands and scripting Experience working with machine learning frameworks and libraries Familiarity with Big Data frameworks such as Spark, Hadoop, etc. Experience with clustering, syntactic parsing, semantic parsing Working knowledge of CI/CD pipelines</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>computer science, git, models, spark, data analysis, datasets, keras, app, learning, nltk, unix, it, nlp, ml, scripting, python, machine learning, led, linux</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>96</v>
+      </c>
+      <c r="B37" t="n">
+        <v>97</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>45048</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Global Talent Exchange</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ML/NLP Engineer - Return India</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Hyderabad, Telangana, India</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/ml-nlp-engineer-return-india-at-global-talent-exchange-3617897986?refId=3XAhmb0E78rdz8IvvT6w4Q%3D%3D&amp;trackingId=oPuotlGz5P0MSFBBZLfqFw%3D%3D&amp;position=22&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Your motherland is calling you home!  India's technology industry has seen an exponential rise to reach a whopping $227 Billion in revenue this year and is now the third-largest startup ecosystem in the world. The country is making major progress in driving transformation at lightning speed. These initiatives have given rise to a plethora of opportunities and organizations are seeking only the very best professionals to spearhead the revolution that is underway.  You could be the Game Changer your country needs.  Apply now!  Job Description  Job responsibilities Define appropriate datasets for training the model and evaluating test results Define validation strategies, and deploy data models Train data models and fine-tune their hyperparameters Perform statistical analysis, and refine models Extend and maintain ML libraries and frameworks Minimum Requirements Bachelor's/Master's degree in computer science (or equivalent experience) 3+ years of experience as an ML/NLP engineer (rare exceptions for skilled devs) Experience in text representation techniques, statistics, classification algos Proficiency in programming languages such as Python, Java, etc. Experience with ML frameworks (Keras or PyTorch) &amp; libraries (Scikit-learn, NLTK) Fluency in the English language to collaborate with engineering managers Preferred Skills Knowledge of source control systems (Git, merging, branching) Ability to handle large unstructured data sets and perform data analysis Experience in Unix/Linux including basic commands and scripting Experience working with machine learning frameworks and libraries Familiarity with Big Data frameworks such as Spark, Hadoop, etc. Experience with clustering, syntactic parsing, semantic parsing Working knowledge of CI/CD pipelines</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>computer science, git, models, spark, data analysis, datasets, keras, app, learning, nltk, unix, it, nlp, ml, scripting, python, machine learning, led, linux</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>38</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>45048</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>American Technology Consulting - ATC</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Junior Software Automation Engineer</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Chennai, Tamil Nadu, India</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/junior-software-automation-engineer-at-american-technology-consulting-atc-3619988629?refId=MMEwGK70qNRql%2Fb8Z0R4cw%3D%3D&amp;trackingId=yaD%2FCH6Y1n4zRXZ%2BsROz2w%3D%3D&amp;position=13&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>About ATC  We partner with entrepreneurs and businesses to build products that solve everyday problems through the creative use of technology. We nurture client efficiency not only through the custom products we build for their organizations but with the automation opportunities we identify through expert business analysis.  ATC's Mission  ATC’s mission is to enable our customers to solve the most challenging problems using technology and design. We accomplish this with our family of SAAS products and services.  About the team: Automation Engineering:  Young and energetic team solving customer problems, ranging from Cloud transformation, Automation, Enterprise technology transformation, and Batch migration to Cloud, across the globe transcending business verticals. The team is also working on intuitive &amp; user experience-based product development in the areas of Application Lifecycle Management, Conversational chatbot, Low code Integration Platform, Blockchain, and Learning platforms applying cutting edge technologies.  Job Titles Associated With This Role  Junior software automation engineer/ Associate software automation test engineer.  Job Responsibilities  Candidate willing to actively contribute in the day-to-day planning, design, execution, and reporting of manual test cases and automated test scripts Follows software engineering principles in the development of automation, manual test cases, software tools, and SQL Quick learner, understand and apply test-driven design concepts to test and debug automated solutions or manual test executions and software utilities developed by self and others Experience and desire to work in a Global delivery environment Proficient in Speaking, Reading and Writing English Should be able to participate in meetings, communicate thoughts clearly/concisely and push back whenever required  Requirements For Success In The Role  Expertise in programming languages such as Java, JavaScript, etc. Expertise in test automation tools such as Selenium or similar. Excellent in software testing fundamentals, concepts, and processes. Excellent skills in object-oriented programming. Knowledge of automation frameworks for UI Automation. Must have strong coordination, communication, reporting, and analytical skills. Ability to work in a team with a diverse/ multiple stakeholder environment. Desire to work in a Global delivery environment. Must be passionate about software quality.  Life at ATC  At ATC we keep an eye on the future, innovate continuously, and integrate disruptive technologies into breakthrough solutions. This is how we partner with companies to move them forward and help them win.  Our Core Values  Customer focus - We have a razor-sharp focus on creating better customer experiences. Agility - We expect our colleagues to think independently and learn &amp; act quickly. Deeper problem solving - Solving emerging problems and issues permanently is a way of life at ATC.  Work Environment  Where you work is as important as why you work. We are committed to an employee-centric atmosphere that drives fulfillment and encourages an enriching and collaborative culture of advanced and engaging professionals. We operate in an onshore/ offshore model, we have teams that work in multiple time zones. We expect our employees to be available to work extended/flexible hours and/or be available on weekends as needed to deliver the best for our stakeholders and clients.</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>advanced, app, learning, it, sql, design, led, writing, cloud, selenium, excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>81</v>
+      </c>
+      <c r="B39" t="n">
+        <v>82</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Vingsfire HRIM Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Python data science</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Madurai, Tamil Nadu, India</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/python-data-science-at-vingsfire-hrim-pvt-ltd-3616350455?refId=3XAhmb0E78rdz8IvvT6w4Q%3D%3D&amp;trackingId=x5HzbTxQg2RzMdn3llhs3w%3D%3D&amp;position=7&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>We are looking for the Python candidates who are expert in Data Science and Machine Learning.  About The Job  You'll be working with a fast growing team to solve the large issue of disruptions and delays in the supply chain. With a global supply chain crisis still hurting many businesses, we're providing a software product to predict disruptions and delays months in advance to help alleviate the current supply chain issues. Our platform ingests many data sources including historical client data and external data sources such as geopolitical risk, macro economic information, AIS data, satellite imaging, Twitter feeds, and many more data sources. This information is fed into our predictive model to find leading indicators to prevent a disruption or a delay.  Responsibilities  Improving model performance, feature engineering, implementing external data sources into the model, statistical analysis, contributing to the code base, and model scalability with enterprise clients (Fortune 2000).  Qualifications  5+ years experience as a Machine Learning Engineer/Data Scientist  Bachelor's degree in Data Science or CS  Hands on experience with Python, SQL, AWS, ML &amp; Times Series  Image recognition and natural language processing is a plus  NumPy, Pandas, Skikit-learn, XGBoost, TensorFlow, Keras  Currently in a Machine Learning Position  Experience with Neural Networks  Data Cleaning and Feature Engineering of Data to Train Models</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>aws, pandas, models, keras, data cleaning, learning, it, ml, sql, inform, python, data science, machine learning, numpy, processing</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>69</v>
+      </c>
+      <c r="B40" t="n">
+        <v>70</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Vingsfire HRIM Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Madurai, Tamil Nadu, India</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/machine-learning-engineer-at-vingsfire-hrim-pvt-ltd-3616350573?refId=%2Fbqm7BL%2BlGtUTG9QMchYVQ%3D%3D&amp;trackingId=TiwWT4085vgzCH2SX1r4Yg%3D%3D&amp;position=20&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>We are looking for the Python candidates who are expert in Data Science and Machine Learning.  About The Job  You'll be working with a fast growing team to solve the large issue of disruptions and delays in the supply chain. With a global supply chain crisis still hurting many businesses, we're providing a software product to predict disruptions and delays months in advance to help alleviate the current supply chain issues. Our platform ingests many data sources including historical client data and external data sources such as geopolitical risk, macro economic information, AIS data, satellite imaging, Twitter feeds, and many more data sources. This information is fed into our predictive model to find leading indicators to prevent a disruption or a delay.  Responsibilities  Improving model performance, feature engineering, implementing external data sources into the model, statistical analysis, contributing to the code base, and model scalability with enterprise clients (Fortune 2000).  Qualifications  5+ years experience as a Machine Learning Engineer/Data Scientist  Bachelor's degree in Data Science or CS  Hands on experience with Python, SQL, AWS, ML &amp; Times Series  Image recognition and natural language processing is a plus  NumPy, Pandas, Skikit-learn, XGBoost, TensorFlow, Keras  Currently in a Machine Learning Position  Experience with Neural Networks  Data Cleaning and Feature Engineering of Data to Train Models</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>aws, pandas, models, keras, data cleaning, learning, it, ml, sql, inform, python, data science, machine learning, numpy, processing</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>19</v>
+      </c>
+      <c r="B41" t="n">
+        <v>20</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Neilsoft</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Software Engineer (AI/ML)</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra, India</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/software-engineer-ai-ml-at-neilsoft-3612366947?refId=p9A%2BbPSQjHH8tB9RZuQYUw%3D%3D&amp;trackingId=Ri6SnPt4fOeGMwFH%2BltObA%3D%3D&amp;position=20&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Job Code: SES-0123-004  Location: Pune  Position: Software Engineer (AI/ML)  Qualification: B.E./B.Tech/M.E./M.Tech  Responsibilities Study and transform data science prototypes Designing Machine Learning systems and self-running Artificial Intelligence (AI) software to automate predictive models Research and implement appropriate ML algorithms and tools Develop Machine Learning applications according to requirements Select appropriate datasets and data representation methods Run Machine Learning tests and experiments Perform statistical analysis and fine-tuning using test results Train and retrain systems when necessary Extend existing ML libraries and frameworks Keep abreast of developments in the field Required Skills/Abilities 2 – 4 years’ experience in AI/ML Good knowledge of Data Structures and Algorithms, and Mathematical Aptitude Excellent programming skills in Python and basic libraries for Machine Learning such as scikit-learn and pandas Must have a very good understanding of AI/ML algorithms and methods Prior knowledge of MLOps tools and Deep Learning methods and tools like PyTorch, Keras, or TensorFlow is preferable Good communication and people management skills with some experience of client handling Reporting To Lead Software Engineer/Project Manager The JD is applicable for Special Employee Referral Scheme (ERS)  Please send your resume to careers@neilsoft.com with the job code in the subject line.  Share the page email facebook twitter linkedin pinterest</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>rest, research, pandas, models, datasets, linkedin, deep learning, keras, app, learning, project, it, ml, tuning, search, python, design, data science, machine learning, led, algorithms, excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>72</v>
+      </c>
+      <c r="B42" t="n">
+        <v>73</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>45045</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Neilsoft</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>AI/ML - Data Scientist</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra, India</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/ai-ml-data-scientist-at-neilsoft-3610089803?refId=%2Fbqm7BL%2BlGtUTG9QMchYVQ%3D%3D&amp;trackingId=uEwYa3r%2FQTkty2%2BXghYTGQ%3D%3D&amp;position=23&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Job Code: R&amp;I-0223-001  Location: Pune  Position: AI/ML - Data Scientist  Experience: 2+ years  Required Skills: AI/ML, Generative design, Python, C++  Good to have skills: R, MLOps  Qualification: B.E. (Computers/IT/Mechanical/Civil)  Female candidates preferred.  Job Responsibilities Understand a problem statement and implement analytical solutions techniques Work with stakeholders throughout the organization to identify opportunities for leveraging company/client data to drive business solutions Conceptualize, design, and deliver high-quality solutions and insightful analysis Conduct research and prototyping innovations; data and requirements gathering; solution scoping and architecture; consulting clients and client-facing teams on advanced statistical and machine learning problems Collaborate and coordinate with different functional teams (engineering and product development) to implement models and monitor outcomes Deliver AI/ML-based solutions around a host of domains and problems, with some of them being Customer Segmentation Targeting, Propensity Modeling, Churn Modeling, Lifetime Value Estimation, Forecasting, Recommender Systems, Modeling Response to Incentives, Marketing Mix Optimization, and Price Optimization Required Skills &amp; Experience 2+ years of expert-level proficiency in Data Science, Machine Learning, Python, C++, and R Programming Should have a basic understanding of AutoCAD tools, CADworks, etc. Ability to create efficient solutions to complex problems. Strong skills in data structures and machine learning algorithms Experience working on end-to-end data science pipeline: problem scoping, data gathering, EDA, modeling, insights, visualizations, monitoring, and maintenance Problem-solving: Ability to break the problem into small parts and apply relevant techniques to drive required outcomes Intermediate to advanced knowledge of machine learning, probability theory, statistics, and algorithms. You will be required to discuss and use various algorithms and approaches on a daily basis Experience in deep learning and generative design in AEC domain Fast learner: ability to learn and pick up a new language/tool/platform quickly Good To Have Experience in Revit API 2021 or 2023 will be added advantage Experience in one of the upcoming technologies like deep learning, NLP, image processing, recommender systems, etc. Experience working in AEC domain Knowledge of geometry concepts and linear algebra Reporting To: Head of Research and Innovation  Please send your resume to careers@neilsoft.com with the job code in the subject line.  Share the page email facebook twitter linkedin pinterest</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>rest, research, models, maintenance, advanced, linkedin, deep learning, app, learning, it, api, nlp, ml, search, visualization, python, design, data science, machine learning, led, algorithms, processing</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>56</v>
+      </c>
+      <c r="B43" t="n">
+        <v>57</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>45044</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>HyreFox Consultants</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>AI &amp; ML Engineer</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Bengaluru North, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/ai-ml-engineer-at-hyrefox-consultants-3590071566?refId=%2Fbqm7BL%2BlGtUTG9QMchYVQ%3D%3D&amp;trackingId=EYKaYXrlpX3NCgmbvM2C7Q%3D%3D&amp;position=7&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Exp: 0-3 years; Humanli.AI is a Startup founded by Alumnus of IIM' Bangalore/ISB Hyderabad &amp; IIM' Calcutta. We are democratizing and extending technology that were accessible &amp; consumed only by MNCs or Fortune companies to SME and Mid-size firms. We are pioneers in bringing Knowledge Management algorithms &amp; Computer Vision into Conversational BOT framework. All our Bots are Conversational BOTs i.e., powered by AI techniques like NLP/NLU/NLG or Deep learning (RNN/CNN) etc. The main responsibilities of include Job Description We are looking for an experienced AI/ML &amp; Data Engineer to join our team and contribute to the development and deployment of our AI-based solution - Knowledge Vic. As an AI/ML &amp; Data Engineer, you will be responsible for designing and implementing data models, algorithms, and pipelines for training and deploying machine learning models. Responsibilities Design, implement, and deploy data models, algorithms, and pipelines for training and deploying machine learning models. Work closely with data scientists and software engineers to develop and deploy machine learning models using modern AI/ML frameworks and technologies. Develop and maintain scalable data pipelines and infrastructure for processing and analyzing large volumes of structured and unstructured data. Ensure the integrity, accuracy, and security of data used in machine learning models. Collaborate with cross-functional teams to identify and solve complex data engineering problems. Stay up-to-date with the latest developments in AI/ML, big data, and cloud computing technologies. Requirements Bachelor's or Master's degree in Computer Science, Engineering, or a related field. Experience in data engineering and machine learning. Strong programming skills in Python and experience with AI/ML frameworks such as TensorFlow, PyTorch, or scikit-learn. Experience with data warehousing and data management technologies such as SQL, NoSQL, Hadoop, and Spark. Strong knowledge of data modeling, data preprocessing, and feature engineering techniques. Experience with cloud computing platforms such as AWS, Azure, or Google Cloud Platform. Excellent problem-solving skills and ability to work independently and collaboratively in a team environment. Strong communication skills and ability to explain technical concepts to non-technical stakeholders. Other Details Keywords Data Science</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>computer science, word, aws, models, spark, deep learning, learning, it, nlp, ml, sql, python, design, data science, machine learning, led, algorithms, cloud, processing, excel, infrastructure</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>38</v>
+      </c>
+      <c r="B44" t="n">
+        <v>39</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>45044</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>HyreFox Consultants</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>AI &amp; ML Engineer</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Bengaluru North, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/ai-ml-engineer-at-hyrefox-consultants-3590071566?refId=MMEwGK70qNRql%2Fb8Z0R4cw%3D%3D&amp;trackingId=80oLZEDe7TM2UgbzIZ3B%2Bw%3D%3D&amp;position=14&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Exp: 0-3 years; Humanli.AI is a Startup founded by Alumnus of IIM' Bangalore/ISB Hyderabad &amp; IIM' Calcutta. We are democratizing and extending technology that were accessible &amp; consumed only by MNCs or Fortune companies to SME and Mid-size firms. We are pioneers in bringing Knowledge Management algorithms &amp; Computer Vision into Conversational BOT framework. All our Bots are Conversational BOTs i.e., powered by AI techniques like NLP/NLU/NLG or Deep learning (RNN/CNN) etc. The main responsibilities of include Job Description We are looking for an experienced AI/ML &amp; Data Engineer to join our team and contribute to the development and deployment of our AI-based solution - Knowledge Vic. As an AI/ML &amp; Data Engineer, you will be responsible for designing and implementing data models, algorithms, and pipelines for training and deploying machine learning models. Responsibilities Design, implement, and deploy data models, algorithms, and pipelines for training and deploying machine learning models. Work closely with data scientists and software engineers to develop and deploy machine learning models using modern AI/ML frameworks and technologies. Develop and maintain scalable data pipelines and infrastructure for processing and analyzing large volumes of structured and unstructured data. Ensure the integrity, accuracy, and security of data used in machine learning models. Collaborate with cross-functional teams to identify and solve complex data engineering problems. Stay up-to-date with the latest developments in AI/ML, big data, and cloud computing technologies. Requirements Bachelor's or Master's degree in Computer Science, Engineering, or a related field. Experience in data engineering and machine learning. Strong programming skills in Python and experience with AI/ML frameworks such as TensorFlow, PyTorch, or scikit-learn. Experience with data warehousing and data management technologies such as SQL, NoSQL, Hadoop, and Spark. Strong knowledge of data modeling, data preprocessing, and feature engineering techniques. Experience with cloud computing platforms such as AWS, Azure, or Google Cloud Platform. Excellent problem-solving skills and ability to work independently and collaboratively in a team environment. Strong communication skills and ability to explain technical concepts to non-technical stakeholders. Other Details Keywords Data Science</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>computer science, word, aws, models, spark, deep learning, learning, it, nlp, ml, sql, python, design, data science, machine learning, led, algorithms, cloud, processing, excel, infrastructure</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>119</v>
+      </c>
+      <c r="B45" t="n">
+        <v>120</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>45040</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Kotai Electronics Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Greater Kolkata Area</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/machine-learning-engineer-at-kotai-electronics-pvt-ltd-3583922788?refId=IP6FU9xOabsLJ0ZAN7PpHQ%3D%3D&amp;trackingId=5jgm5NN7auzjo0wx1%2FAXeQ%3D%3D&amp;position=20&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>We are looking for a Machine Learning (ML) Engineer to help us create artificial intelligence products. Machine Learning Engineer responsibilities include creating machine learning models and retraining systems. To do this job successfully, you need exceptional skills in statistics and programming. If you also have knowledge of data science and software engineering, we’d like to meet you. Your ultimate goal will be to shape and build efficient self-learning applications.  Responsibilities Study and transform data science prototypes Design machine learning systems Research and implement appropriate ML algorithms and tools Develop machine learning applications according to requirements Select appropriate datasets and data representation methods Run machine learning tests and experiments Perform statistical analysis and fine-tuning using test results Train and retrain systems when necessary Extend existing ML libraries and frameworks Keep abreast of developments in the field  Requirements Proven experience as a Machine Learning Engineer or similar role Understanding of data structures, data modeling and software architecture Deep knowledge of math, probability, statistics and algorithms Ability to write robust code in Python, Java and R Familiarity with machine learning frameworks (like Keras or PyTorch) and libraries (like scikit-learn) Excellent communication skills Ability to work in a team Outstanding analytical and problem-solving skills BSc in Computer Science, Mathematics or similar field; Master’s degree is a plus</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>computer science, research, models, datasets, keras, app, learning, it, ml, tuning, search, python, design, data science, machine learning, led, algorithms, excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>21</v>
+      </c>
+      <c r="B46" t="n">
+        <v>22</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>45038</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Zycus</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra, India</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/machine-learning-engineer-at-zycus-3608062762?refId=p9A%2BbPSQjHH8tB9RZuQYUw%3D%3D&amp;trackingId=tOKYPJzviJhUOuMCJnHy8g%3D%3D&amp;position=22&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Job Description  We are especially looking for Machine Learning Engineers with a strong background in Analytics, Data mining and Machine Learning. Experience in Natural Language Processing and Image Processing is a plus.  Machine Learning Engineer will report to Director Engineering - Machine Learning &amp; the roles &amp; responsibilities are as below:  Work as the data strategist, identifying and integrating new datasets that can be leveraged through our product capabilities and work closely with the engineering team to strategize and execute the development of data products Communicate analytic solutions to stakeholders and implement improvements as needed to operational systems consulting with managers to determine and refine machine learning objectives. Designing and devloping machine learning systems and self-running artificial intelligence (AI) software to automate predictive models. Transforming data science prototypes and applying appropriate ML algorithms and tools. Solving complex problems with multi-layered data sets, as well as optimizing existing machine learning libraries and frameworks. Developing ML algorithms to analyze huge volumes of historical data to make predictions. Running tests, performing statistical analysis, and interpreting test results. Documenting machine learning processes.  Keeping abreast of developments in machine learning.  Job Description  Bachelor, Master’s or Ph.D. in Statistics, Mathematics, or Computer Science Graduate/Post Graduate from Tier I institutes Experience using python/R etc. Experience in working with regression and deep learning algorithms. Working experience with NLP, Computer Vision/Image Processing preferred. 1-3 years of experience building statistical models with real world applications. Experience with AI algorithm optimization techniques. Experience using web services: Redshift/S3/Spark/DigitalOcean, etc. Experience with distributed data/computing tools. Experience in EDA (Exploratory Data Analysis.)</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>computer science, git, models, spark, data analysis, datasets, deep learning, app, learning, digital, it, nlp, ml, python, design, building, web, data science, machine learning, algorithms, analytics, processing</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>97</v>
+      </c>
+      <c r="B47" t="n">
+        <v>98</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>45038</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Shine.com</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence/Machine Learning Role - Model Development - BFSI</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/artificial-intelligence-machine-learning-role-model-development-bfsi-at-shine-com-3607462283?refId=3XAhmb0E78rdz8IvvT6w4Q%3D%3D&amp;trackingId=jJVfnobylQFROLgTvnH2cQ%3D%3D&amp;position=23&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Our client is a global leader in financial services, looking for an experienced professional to join the AI/ML model development group, responsible to build AI/ML based solutions and advanced financial applications as alternative to traditional/qualitative approaches.  Some Of The Key Responsibilities Will Include  The individual will be responsible for developing various machine learning and artificial intelligence models for the retail business of the bank. Combine machine learning techniques with unique data assets to optimize business decisions. Develop tools to leverage machine learning and deep learning models to solve problems in areas like Speech Recognition, Natural Language Processing and Time Series predictions.  To Be Eligible For This Role You Will Require  At least 3-8 years of experience. Exceptional quantitative and analytical background with a solid theoretical foundation and experience in Modelling. Understanding of design, development, and implementation of machine learning and artificial intelligence models. Must have delivered projects using variety of AI / ML Deep Learning techniques including NLP, Neural networks Computer Vision experiences. Proficiency in coding in Python, R, MATLAB, or similar programming languages.  ,  This job is provided by Shine.com</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>models, advanced, deep learning, app, learning, project, it, nlp, ml, python, design, machine learning, processing</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>79</v>
+      </c>
+      <c r="B48" t="n">
+        <v>80</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>45038</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Zycus</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra, India</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/machine-learning-engineer-at-zycus-3608062762?refId=3XAhmb0E78rdz8IvvT6w4Q%3D%3D&amp;trackingId=83pggRSpCizq17gaaot80w%3D%3D&amp;position=5&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Job Description  We are especially looking for Machine Learning Engineers with a strong background in Analytics, Data mining and Machine Learning. Experience in Natural Language Processing and Image Processing is a plus.  Machine Learning Engineer will report to Director Engineering - Machine Learning &amp; the roles &amp; responsibilities are as below:  Work as the data strategist, identifying and integrating new datasets that can be leveraged through our product capabilities and work closely with the engineering team to strategize and execute the development of data products Communicate analytic solutions to stakeholders and implement improvements as needed to operational systems consulting with managers to determine and refine machine learning objectives. Designing and devloping machine learning systems and self-running artificial intelligence (AI) software to automate predictive models. Transforming data science prototypes and applying appropriate ML algorithms and tools. Solving complex problems with multi-layered data sets, as well as optimizing existing machine learning libraries and frameworks. Developing ML algorithms to analyze huge volumes of historical data to make predictions. Running tests, performing statistical analysis, and interpreting test results. Documenting machine learning processes.  Keeping abreast of developments in machine learning.  Job Description  Bachelor, Master’s or Ph.D. in Statistics, Mathematics, or Computer Science Graduate/Post Graduate from Tier I institutes Experience using python/R etc. Experience in working with regression and deep learning algorithms. Working experience with NLP, Computer Vision/Image Processing preferred. 1-3 years of experience building statistical models with real world applications. Experience with AI algorithm optimization techniques. Experience using web services: Redshift/S3/Spark/DigitalOcean, etc. Experience with distributed data/computing tools. Experience in EDA (Exploratory Data Analysis.)</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>computer science, git, models, spark, data analysis, datasets, deep learning, app, learning, digital, it, nlp, ml, python, design, building, web, data science, machine learning, algorithms, analytics, processing</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>6</v>
+      </c>
+      <c r="B49" t="n">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="n">
+      <c r="C49" s="1" t="n">
+        <v>45037</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Fusion Plus Solutions Inc</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ML/AI</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Hyderabad, Telangana, India</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/ml-ai-at-fusion-plus-solutions-inc-3573049752?refId=p9A%2BbPSQjHH8tB9RZuQYUw%3D%3D&amp;trackingId=YIYqP9hzzf7x%2ByfwQsCdSg%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Machine Learning/AI Engineer (Python, PySpark, SQL, Jenkins, Dockers or Kubernets ) - ID: 9431  Jd  Required Technical Job Skills:  Strong knowledge in Python programming &amp; libraries like Pandas, NumPy, etc Experience with (GCP/AWS/Azure) Any Cloud, Docker/Kubernetes and scale containerized apps Experience in Apache Spark or PySpark, Kafka Good knowledge in SQL Queries and any RDBMS DB. Understanding of CI/CD tools like Jenkins &amp; SonarQube Implement &amp; deploy models into production by leveraging MLOps best practices. Strong communication skills in a collaborative environment  Location : Chennai  Salary : 7L to 17.5L  Exp: 3+ years relevant exp  Job Posting ID: TechM79771</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>aws, pandas, models, spark, app, learning, it, ml, sql, apache, python, machine learning, led, cloud, numpy</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>100</v>
+      </c>
+      <c r="B50" t="n">
+        <v>101</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>45037</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>U GRO Capital</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Mumbai, Maharashtra, India</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/data-scientist-at-u-gro-capital-3609310288?refId=IP6FU9xOabsLJ0ZAN7PpHQ%3D%3D&amp;trackingId=F8oTDiW3s1Ar70TJyo8Saw%3D%3D&amp;position=1&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Data Scientist Roles And Responsibilities Include  Data mining or extracting usable data from valuable data sources Using machine learning tools to select features, create and optimize classifiers Carrying out preprocessing of structured and unstructured data Enhancing data collection procedures to include all relevant information for developing analytic systems Processing, cleansing, and validating the integrity of data to be used for analysis</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>learning, features, it, inform, machine learning, processing</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>25</v>
+      </c>
+      <c r="B51" t="n">
+        <v>26</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>45037</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Fusion Plus Solutions Inc</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Hyderabad, Telangana, India</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/machine-learning-at-fusion-plus-solutions-inc-3573054556?refId=MMEwGK70qNRql%2Fb8Z0R4cw%3D%3D&amp;trackingId=HDtoZguK9v%2BT5KCI2R6Dww%3D%3D&amp;position=1&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>3+ years of experience in building machine learning models and building Client based applications Python, Django, Flask, SQL, Tensorflow / Keras, Scikit-learn, Deep Learning, Named Entity Recognition, Image Processing - Must MLOps, Kubernetes, Docker - Good to have Git, Linux - Must Good communication skills</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>git, models, deep learning, keras, app, learning, it, ml, sql, python, django, building, machine learning, flask, processing, linux</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>120</v>
+      </c>
+      <c r="B52" t="n">
+        <v>121</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>45037</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Unite Career Solutions</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Big Data Engineer - Fresher</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/big-data-engineer-fresher-at-unite-career-solutions-3604506622?refId=IP6FU9xOabsLJ0ZAN7PpHQ%3D%3D&amp;trackingId=a9XllAsamG1zXZHvOitsUQ%3D%3D&amp;position=21&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>We are looking for an Fresher/ experienced data engineer to join our team. You will use various methods to transform raw data into useful data systems. For example, you’ll create algorithms and conduct statistical analysis. Overall, you’ll strive for efficiency by aligning data systems with business goals.  To succeed in this data engineering position, you should have strong analytical skills and the ability to combine data from different sources. Data engineer skills also include familiarity with several programming languages and knowledge of learning machine methods.  If you are detail-oriented, with excellent organizational skills and experience in this field, we’d like to hear from you.  Responsibilities  Analyze and organize raw data Build data systems and pipelines Evaluate business needs and objectives Interpret trends and patterns Conduct complex data analysis and report on results Prepare data for prescriptive and predictive modeling Build algorithms and prototypes Combine raw information from different sources Explore ways to enhance data quality and reliability Identify opportunities for data acquisition Develop analytical tools and programs Collaborate with data scientists and architects on several projects  Requirements And Skills  Previous experience as a data engineer or in a similar role Technical expertise with data models, data mining, and segmentation techniques Knowledge of programming languages (e.g. Java and Python) Hands-on experience with SQL database design Great numerical and analytical skills Degree in Computer Science, IT, or similar field; a Master’s is a plus Data engineering certification (e.g IBM Certified Data Engineer) is a plus Self-motivated with a results-driven approach Aptitude in delivering attractive presentations High school degree Skills: data warehousing,etl,sql,python,java,hadoop,hive,spark,nosql databases,cloud computing,aws,azure,gcp,data modeling,data mining,data visualization,communication,project management,data lake,data quality,data architecture</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>computer science, aws, databases, models, spark, data analysis, app, learning, project, it, data visualization, sql, visualization, inform, python, etl, design, led, algorithms, cloud, excel, database</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>95</v>
+      </c>
+      <c r="B53" t="n">
+        <v>96</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>45037</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Fusion Plus Solutions Inc</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ML/AI Engineer</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Hyderabad, Telangana, India</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/ml-ai-engineer-at-fusion-plus-solutions-inc-3573052623?refId=3XAhmb0E78rdz8IvvT6w4Q%3D%3D&amp;trackingId=fuA3e4TENr3YPfF8zivm%2BA%3D%3D&amp;position=21&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Role: Client/AI Engineer  Experience: 3to 6years  Max CTC: 18LPA  Mandatory skills: Experience in Java or JavaScript with Client &amp; NLP.  Location: Bangalore (work from office)  Detailed JD: 1. 3+ years of SW development experience.  Excellent programming skills least one of the following programming languages: C++, Java, Java script. [Python knowledge is advantage] A solid understanding of how web applications work including security, session management, and best development practices. Basic knowledge of Machine Learning &amp; NLP process with standard Client algorithms and toolkits. Good software design, problem solving and debugging skills. Ability to work and thrive in a fast-paced environment, learn rapidly and master diverse Natural Language Understanding techniques. Gather and refine specifications and requirements based on technical needs Good communication and interpretation skill</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>app, learning, it, api, nlp, python, design, web, web applications, machine learning, led, algorithms, excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>16</v>
+      </c>
+      <c r="B54" t="n">
+        <v>17</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>45037</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>SAZ India</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Data Analysis/ Big Data Engineer / Data Scientist Freshers</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/data-analysis-big-data-engineer-data-scientist-freshers-at-saz-india-3604509357?refId=p9A%2BbPSQjHH8tB9RZuQYUw%3D%3D&amp;trackingId=tXtfa%2BmvO82hAZJl%2B1Zv7Q%3D%3D&amp;position=17&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Responsibilities  Who can Develop STM (Source to Target Mapping) technical specifications based on requirements including needed transformations and business process required and informing end to end conceptual architecture and defining data designs data mining data quality profiling Completes QA Testing for expected results  Physicalizing Data Model  Skills / Qualifications  Must have skills: Python, SQL Strong experience on data analytics. Good Communication skills and a good team player.  Mandatory skills Python, SQL  Desired Skills Spark, Snowflake  Skills: data analysis - sql server,python,mysql,data engineer</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>spark, data analysis, app, it, sql, inform, python, data analytics, design, mysql, analytics</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>136</v>
+      </c>
+      <c r="B55" t="n">
+        <v>137</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>45035</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Diverse Lynx</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ML Engineer</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Bangalore Urban, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/ml-engineer-at-diverse-lynx-3569928382?refId=n05x%2Bj4PpBsT2234tP2yaw%3D%3D&amp;trackingId=O1sTMiT0th4iYns2bCnvrQ%3D%3D&amp;position=12&amp;pageNum=5&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Job Title: Client Engineer  About Digital Technology  We're not yesterday's IT department, we're Digital Technology. The world around us keeps changing and so do we. We're redefining what it means to be IT with a mindset centered on transformation, experience, AI-driven automation, innovation, and growth. We're all about delivering delightful, secure customer and employee experiences that accelerate ServiceNow's journey to become the defining enterprise software company of the 21st century. And we love co-creating, using, and highlighting our own products to do it.  Ultimately, we strive to make the world work better for our employees and customerswhen you work in ServiceNow Digital Technology, you work for them.  What Our Team Values  Being humble and having each others' backs Learning new things and sharing expertise with each otherby answering a quick question on teams, pairing on a feature, or leading a lunch and learn session Producing high quality work we're proud of, and not taking shortcuts Having funwe like to joke around, eat lunch together, and even hang outside of work Leaving work at work, maintaining a sustainable pace (no big bangs, few big pushes)  What You Get To Do In This Role  Integrate Client/AI capabilities into the ServiceNow platform Build Client/AI enabled application on the ServiceNow platform Help evolve the MLOps process our team follows Write web components with APIs that developers love to use. You'll take the time to create code that is easy to understand and maintain across the team. Build high quality components. You'll be involved through the whole process including requirements gathering, design, implementation, testing, release, and support. Architect, design and build end to end proof of concept and prototype of products and solution  In order to be successful in this role, we need someone who has  Passion for the engineering process required to train Client/AI models at scale in the cloud Good understanding of MLOps process, preferably using Azure Client service Strong knowledge of Python and data science libraries Experience implementing machine learning and deep learning solutions Strong data analysis skills Good command of JavaScript and the Web as a platform, reusability, and componentization Ability to learn ServiceNow platform and new technologies quickly and demonstrate a hands-on understanding Strong understanding of design patterns, integration patterns/practice, data modeling principles, and best practices A good track record of project delivery for large cross-team projects Exceptional debugging, testing, and problem-solving skills Bachelor's/Master's degree in Computer Science or a related discipline</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>computer science, git, models, data analysis, deep learning, app, learning, digital, project, it, api, ml, python, design, web, data science, record, machine learning, led, cloud</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>137</v>
+      </c>
+      <c r="B56" t="n">
+        <v>138</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>45035</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Eduauraa</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Mumbai, Maharashtra, India</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/data-scientist-at-eduauraa-3576560017?refId=n05x%2Bj4PpBsT2234tP2yaw%3D%3D&amp;trackingId=%2BQE%2BNq9l1TyzJDPieqLKcQ%3D%3D&amp;position=13&amp;pageNum=5&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>We are looking for a Data Scientist to analyze large amounts of raw information to find patterns that will help improve our company. We will rely on you to build data products to extract valuable business insights. In this role, you should be highly analytical with a knack for analysis, math and statistics. Critical thinking and problem-solving skills are essential for interpreting data. We also want to see a passion for machine-learning and research. Your goal will be to help our company analyze trends to make better decisions.  Responsibilities Identify valuable data sources and automate collection processes Undertake preprocessing of structured and unstructured data Analyze large amounts of information to discover trends and patterns Build predictive models and machine-learning algorithms Combine models through ensemble modeling Present information using data visualization techniques Propose solutions and strategies to business challenges Collaborate with engineering and product development teams  Requirements Proven experience as a Data Scientist or Data Analyst Experience in data mining Understanding of machine-learning and operations research Knowledge of R, SQL and Python; familiarity with Scala, Java or C++ is an asset Experience using business intelligence tools (e.g. Tableau) and data frameworks (e.g. Hadoop) Analytical mind and business acumen Strong math skills (e.g. statistics, algebra) Problem-solving aptitude Excellent communication and presentation skills BSc/BA in Computer Science, Engineering or relevant field; graduate degree in Data Science or other quantitative field is preferred</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>computer science, research, models, learning, tableau, it, data visualization, search, sql, visualization, inform, python, operations, data science, led, algorithms, processing, excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>49</v>
+      </c>
+      <c r="B57" t="n">
+        <v>50</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>45035</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Eduauraa</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Mumbai, Maharashtra, India</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/machine-learning-engineer-at-eduauraa-3576556240?refId=MMEwGK70qNRql%2Fb8Z0R4cw%3D%3D&amp;trackingId=MhaBr5XSfjMKFRBdMKInWA%3D%3D&amp;position=25&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>We are looking for a Machine Learning (ML) Engineer to help us create artificial intelligence products. Machine Learning Engineer responsibilities include creating machine learning models and retraining systems. To do this job successfully, you need exceptional skills in statistics and programming. If you also have knowledge of data science and software engineering, we’d like to meet you. Your ultimate goal will be to shape and build efficient self-learning applications.  Responsibilities Study and transform data science prototypes Design machine learning systems Research and implement appropriate ML algorithms and tools Develop machine learning applications according to requirements Select appropriate datasets and data representation methods Run machine learning tests and experiments Perform statistical analysis and fine-tuning using test results Train and retrain systems when necessary Extend existing ML libraries and frameworks Keep abreast of developments in the field  Requirements Proven experience as a Machine Learning Engineer or similar role Understanding of data structures, data modeling and software architecture Deep knowledge of math, probability, statistics and algorithms Ability to write robust code in Python, Java and R Familiarity with machine learning frameworks (like Keras or PyTorch) and libraries (like scikit-learn) Excellent communication skills Ability to work in a team Outstanding analytical and problem-solving skills BSc in Computer Science, Mathematics or similar field; Master’s degree is a plus</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>computer science, research, models, datasets, keras, app, learning, it, ml, tuning, search, python, design, data science, machine learning, led, algorithms, excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>68</v>
+      </c>
+      <c r="B58" t="n">
+        <v>69</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>45035</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Eduauraa</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Mumbai, Maharashtra, India</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/machine-learning-engineer-at-eduauraa-3576556240?refId=%2Fbqm7BL%2BlGtUTG9QMchYVQ%3D%3D&amp;trackingId=k%2FmA8PBgzloQBx4XGMXGFg%3D%3D&amp;position=19&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>We are looking for a Machine Learning (ML) Engineer to help us create artificial intelligence products. Machine Learning Engineer responsibilities include creating machine learning models and retraining systems. To do this job successfully, you need exceptional skills in statistics and programming. If you also have knowledge of data science and software engineering, we’d like to meet you. Your ultimate goal will be to shape and build efficient self-learning applications.  Responsibilities Study and transform data science prototypes Design machine learning systems Research and implement appropriate ML algorithms and tools Develop machine learning applications according to requirements Select appropriate datasets and data representation methods Run machine learning tests and experiments Perform statistical analysis and fine-tuning using test results Train and retrain systems when necessary Extend existing ML libraries and frameworks Keep abreast of developments in the field  Requirements Proven experience as a Machine Learning Engineer or similar role Understanding of data structures, data modeling and software architecture Deep knowledge of math, probability, statistics and algorithms Ability to write robust code in Python, Java and R Familiarity with machine learning frameworks (like Keras or PyTorch) and libraries (like scikit-learn) Excellent communication skills Ability to work in a team Outstanding analytical and problem-solving skills BSc in Computer Science, Mathematics or similar field; Master’s degree is a plus</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>computer science, research, models, datasets, keras, app, learning, it, ml, tuning, search, python, design, data science, machine learning, led, algorithms, excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>114</v>
+      </c>
+      <c r="B59" t="n">
+        <v>115</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>45034</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Gupshup</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/software-engineer-at-gupshup-3567991130?refId=IP6FU9xOabsLJ0ZAN7PpHQ%3D%3D&amp;trackingId=0Rc6FmbMyECB7wgmUWK0BA%3D%3D&amp;position=15&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Requirements  Proficient in OOPS, Java/J2EE, JAX-RS, JDBC, SQL, NoSQL, RESTful Web Services, Data Structures, Queues, Multi-Threading etc. MySQL and Mongo database knowledge Basic understanding of AWS Cloud Must have worked on highly scalable and available systems Knowledge of version control (Git) and automation tool (Jenkins) Good at adapting and understanding architecture and overall design of the system Knowledge on Scala, Spark, Elastic Search, kafka Exposure to design patterns is a plus Must have exposure to agile development Experience of creating and maintaining system documentation such as architecture, design, deployment plan etc. Good at communication</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>git, rest, aws, spark, it, search, sql, design, web, mysql, led, cloud, database</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>3</v>
+      </c>
+      <c r="B60" t="n">
+        <v>4</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>45034</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>TrueFoundry</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>ML Platform Engineer- Intern</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Internship</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/ml-platform-engineer-intern-at-truefoundry-3575162098?refId=p9A%2BbPSQjHH8tB9RZuQYUw%3D%3D&amp;trackingId=V9d5UzgHgM90vxfGH6tEmw%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>At TrueFoundry, our mission is to make Machine Learning productionisation and monitoring simpler for anyone!  Team  We have had folks from IITs, ISB, Facebook, Amazon, Postman, GoJek join us already. We have built a solid team &amp; are well funded by top a top VC + directly from Naval Ravikant.  2nd-time founders - their previous startup (EntHire.co) was acquired by InfoEdge + was selected to be a part of Y Combinator.  About US  We are building a ML Platform and our Value Prop is to enable ML Teams to go from Model to Live in 15 minutes with the best Practices including Monitoring and Auto-scaling built right from Day 0.  About The Role  In this role, you will work closely with the founders including Abhishek (https://www.linkedin.com/in/abhishekch123/) and Nikunj (https://www.linkedin.com/in/nikunj-bajaj-10476824/) to build our TrueFoundry Platform for easing the workflow of Developers and DataScientists. As one of the core members to join our team, you will play a key role in shaping the technology, growing the team and defining the vision of our company together with the founders. We are Product first team, work in a close knit fashion and operate like a family rather than co-workers.  Requirements Experience with production-grade python- preferably contribution to open source repos. Experience with deployment of ML Models is required Prior experience with ML monitoring, observability &amp; explainability systems, and familiarity with tools for data science like Pandas, Notebooks, Numpy, Scipy, etc. Comfortable working in a Linux environment, experience with one relational &amp; 1 non-relational DB is preferred. Some working experience with TensorFlow or PyTorch is preferred Experience with model analysis and experimentation frameworks like MLFlow, W&amp;B, tfma is preferred. What You’ll Do Help build model monitoring systems across model types like regression, classification with structured &amp; unstructured datasets Build high-performance multi-tenant deployment architecture that works across frameworks like PyTorch, sklearn, TensorFlow. Help realize the product vision: Production-ready machine learning models with monitoring within moments, not months. Help companies deploy their machine learning models at scale across a wide range of use-cases and sectors. Write maintainable, scalable performant python code, Build high volume and high availability analytics systems, Push the state of the art of MLOPs to push the industry ahead! Some Projects Help build model monitoring systems across model types like regression, classification with structured &amp; unstructured datasets Build high performance multi tenant deployment architecture that works across frameworks like pytorch, sklearn &amp; tensorflow Benefits At TrueFoundry Work with top engineers who led the Facebook Videos and Infrastructure team Weekly Games and learning sessions with teammates Flexible working hours and work directly with the Co-founders Team discussions on product and business growth strategies. Experience &amp; insights for those who want to build a startup in the future Other benefits like learning credits How to Apply?  Please apply directly from here AND brownie points if you can email careers@truefoundry.com with the following: Resume/Link to LinkedIn profile Why do you think you will be a fit for this role? {this often helps applications stand out) If you have done a similar thing in the past - please highlight it.</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>pandas, models, datasets, linkedin, app, learning, workflow, project, it, api, ml, scipy, python, building, data science, machine learning, led, analytics, numpy, linux, infrastructure</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>104</v>
+      </c>
+      <c r="B61" t="n">
+        <v>105</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>45028</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Hidden Brains InfoTech Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence Engineer - Machine Learning/Image Processing</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Ahmedabad, Gujarat, India</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/artificial-intelligence-engineer-machine-learning-image-processing-at-hidden-brains-infotech-pvt-ltd-3595695287?refId=IP6FU9xOabsLJ0ZAN7PpHQ%3D%3D&amp;trackingId=VOHLgWde2RRI7o7jdhCMww%3D%3D&amp;position=5&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Job Description  Artificial Intelligence Engineer (Text-to-Image Generative AI)  We are looking for an experienced Artificial Intelligence Engineer with subject matter expertise in Text-to-Image Generative AI to join our dynamic team. As an AI Engineer, you will be responsible for developing and implementing state-of-the-art AI algorithms and models that will transform our business operations. Design, develop and deploy end-to-end Text-to-Image Generative AI models and algorithms that meet business requirements and industry standards. Collaborate with cross-functional teams including Data Scientists, Product Managers, and Software Engineers to develop AI-powered applications and products. Research and experiment with new AI techniques, methodologies and technologies to improve model accuracy, performance, and efficiency. Conduct data analysis, data pre-processing, and data visualization tasks to prepare training and validation datasets. Train, validate and test deep learning models for Text-to-Image Generative AI using frameworks such as TensorFlow, PyTorch, or Keras. Optimize and fine-tune AI models to achieve optimal performance and scalability. Deploy AI models to production environments using cloud platforms such as AWS, GCP or Azure. Monitor and maintain deployed AI models to ensure optimal performance and stability. Deep understanding of 3D Virtual worlds (metaverse). Stay up-to-date with the latest research and advancements in AI and Text-to-Image Generative AI, and share knowledge with the team.  (ref:hirist.com)</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>research, aws, models, data analysis, datasets, deep learning, keras, app, learning, it, data visualization, search, visualization, design, operations, led, algorithms, cloud, processing</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>121</v>
+      </c>
+      <c r="B62" t="n">
+        <v>122</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>45028</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>TATA Power</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Interesting Job Opportunity: Tata Power - Data Scientist - Predictive Modeling/Machine Learning</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Mumbai, Maharashtra, India</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/interesting-job-opportunity-tata-power-data-scientist-predictive-modeling-machine-learning-at-tata-power-3595692531?refId=IP6FU9xOabsLJ0ZAN7PpHQ%3D%3D&amp;trackingId=TSxFei4ZUZxabCV6RGHUEw%3D%3D&amp;position=22&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>The position is based out of Mumbai and will be part of D&amp;IT (Digitalization &amp; Information Technology), tasked with improving the data science and AI/ML capabilities and delivery excellence that guides decision-making across Clusters (Generation, Renewables, Transmission &amp; Distribution, NBS etc.) and Corporate Functions (Finance, HR etc.). You will lead and mentor a team of data scientists as you partner closely with peer data engineers and web/Power BI developers to create data &amp; insights-driven solutions to business problems. The ability to convert problem statement into analytical solutioning, build POC with high accuracy, mass deployment and create scalable/reusable assets &amp; best practices are critical to be successful in this role. Our business is evolving quickly, and we need you to think long term, but deliver incrementally and drive business impact.  Tata Power with its competitive edge of resources is playing a key role in the transformation process and aims to emerge as a most admired integrated Power and Energy company. We at Tata Power believe that investment in people and their potential is one of the greatest investments we can make. For this, we are constantly in search of talent that is curious, creative, communicative, and passionate, that can perform excellently. Does that sound like a compelling place to work?  Key Deliverables  Use predictive modelling to increase and optimize power generation, price, cost savings, customer experiences and other business outcomes You will be required to discuss and use various algorithms and approaches daily. Leading the entire software lifecycle including hands-on development, code reviews, testing, deployment, and documentation. Agile SCRUM and MLOps experience is preferred. Develop reusable/scalable assets and accelerators. Implement ML best practices. Work directly with our internal technical teams to ensure that our solutions are seamlessly and effectively integrated Analyse the market and industry trends in the technology and proactively look for opportunities in proposing the best solutions. Proactively research on upcoming ML techniques and best practices. Responsible for coding, testing, debugging, evaluating solution/ technology options (including Cloud), and documenting application development Migrate current analytics applications &amp; pipelines to Cloud in future Skills and Experience Required :  Experience in statistical modelling, machine learning, probability theory, algorithms. data mining, unstructured data analytics and natural language processing Expertise in machine learning techniques such as Clustering, Regression, Bayesian methods, tree-based learners, SVM, RF, XGBOOST, time series modelling, dimensionality reduction, SEM, GLM, GLMM, Deep learning, Neural Network, Topic Modelling, Multivariate Statistics, K-NN, Nave Bayes etc. Working knowledge of popular Deep Learning architectures and theory, simulation, scenario analysis, constraint optimization, anomaly detection, semi-supervised machine learning, unsupervised learning algorithms using deep learning etc. Experience with optimization techniques (Linear Programming, Genetic Algorithm, Sim. Annealing, MC Simulation) Experience in one of the upcoming technologies like deep learning, NLP, NLG, image processing, recommender systems, chatbot, voice AI, video AI etc. Experience of working on end-to-end data science pipeline: problem scoping, data discovery and extraction, EDA, modelling, evaluation, insights, visualizations, continuous improvement, maintenance, and business value/impact tracking. Problem-solving: Ability to break the problem into small parts and applying relevant techniques to drive required outcomes. We're excited if you have :  Graduate with Engineering Degree (CS/Electronics/IT) / MCA / MCS + Masters in Statistics/Economics/Business Analytics Ability to interpret complex business requirements and translating them into analytical problems to deliver high value outputs Experience in Data science work bench in Cloud platforms Hands-on experience in Python, NLP, Kafka, Spark/Pyspark, Scala, Airflow, Microservices, REST API. Elastic search, PostgreSQL, Power BI, Strong knowledge on Python, NLP, Google, and Cloud libraries/packages Experience in text, image, video analytics Awareness of Data structures - RDBMS, NoSQL and columnar databases. Experience with configuration management and version control apps (ie: GIT) and experience working within a CI/CD framework is a plus. An even bigger plus if you have experience in Agile, SCRUM and MLOps. Experience with Cloud technologies and architecture is a plus Experience in managing multiple projects and stakeholders with excellent communication and interpersonal skills Ability to develop and organize high-quality documentation Superior analytical skills and a strong sense of ownership in your work Ability to thrive in a fast-paced environment, and to manage multiple, competing priorities simultaneously Experience in Client expectation Management, Project Scoping, Delivery, Project Management, Risk management and Value Tracking Prior Energy &amp; Utilities industry experience is a big plus  (ref:hirist.com)</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>git, rest, research, power bi, databases, spark, maintenance, deep learning, app, learning, digital, airflow, project, it, api, nlp, ml, search, sql, visualization, inform, python, data analytics, web, data science, machine learning, postgresql, led, algorithms, analytics, cloud, processing, excel, database</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>123</v>
+      </c>
+      <c r="B63" t="n">
+        <v>124</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>45027</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>MangoApps</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>AI Engineer</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra, India</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/ai-engineer-at-mangoapps-3558150803?refId=IP6FU9xOabsLJ0ZAN7PpHQ%3D%3D&amp;trackingId=oG04egUsSACEuz39tkyXMA%3D%3D&amp;position=24&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>We are looking for a highly capable machine learning engineer to optimise our machine learning systems. You will be evaluating existing machine learning (ML) processes, performing statistical analysis to resolve data set problems, and enhancing the accuracy of our AI software's predictive automation capabilities.  To ensure success as a machine learning engineer, you should demonstrate solid data science knowledge and experience in a related ML role. A machine learning engineer will be someone whose expertise translates into the enhanced performance of predictive automation software.  Responsibilities  Designing machine learning systems and self-running artificial intelligence (AI) software to automate predictive models. Transforming data science prototypes and applying appropriate ML algorithms and tools. Ensuring that algorithms generate accurate user recommendations. Turning unstructured data into useful information by auto-tagging images and text-to-speech conversions. Solving complex problems with multi-layered data sets, as well as optimizing existing machine learning libraries and frameworks. Developing ML algorithms to huge volumes of historical data to make predictions. Running tests, performing statistical analysis, and interpreting test results. Documenting machine learning processes. Keeping abreast of developments in machine learning.  Requirements  Bachelor's degree in computer science, data science, mathematics, or a related field with at least 3+yrs of experience as an AI/ML Engineer Advanced proficiency with Python &amp; libraries like scikit-learn, Pandas, NumPy etc. Experience in working on ChatGPT, LangChain, Large Language Models &amp; Knowledge Graphs Extensive knowledge of ML frameworks, libraries, data structures, data modelling, and software architecture. In-depth knowledge of mathematics, statistics, and algorithms. Superb analytical and problem-solving abilities. Great communication and collaboration skills.</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>computer science, pandas, models, advanced, app, learning, it, ml, inform, python, design, data science, machine learning, led, algorithms, numpy</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>27</v>
+      </c>
+      <c r="B64" t="n">
+        <v>28</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>45020</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Paxcom India (P) Ltd - A Paymentus Company</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>ML Engineer (NLP)</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Delhi, Delhi, India</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/ml-engineer-nlp-at-paxcom-india-p-ltd-a-paymentus-company-3588054883?refId=MMEwGK70qNRql%2Fb8Z0R4cw%3D%3D&amp;trackingId=Hy8O%2FwbBiWgEO9tXg%2ByRVQ%3D%3D&amp;position=3&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Requirements  Strong practical experience with analysis, development, and deployment of real-world use cases in the area of Natural Language Processing, Knowledge of state-of-the-art ML algorithms such as BERT, ELMo, GPT, GPT-3 ChatGPT XLNET, T5 LSTMs, CRFs, ONNX, etc., APIs, and open-source methods. Understanding of NLP techniques for text representation, semantic and lexical analysis, data structures, and modeling. Proactively identify opportunities and drive the development of state-of-the-art methods aligned with and guided by business priorities. Use effective text representations to transform natural language into useful features. Find and implement the right algorithms and tools for NLP tasks. Train the developed model and run evaluation experiments, and maintain the models using MLOps techniques. Work closely with product and business teams to ensure strong alignment between AI solutions and customer requirements. An ideal candidate has strong software engineering practices and is comfortable with Python programming, debugging/profiling, and version control. Experience with Tensorflow, PyTorch, or other Deep Learning Frameworks. Strong experience with data science tools including Python scripting, CUDA, numpy, scipy, matplotlib, scikit-learn, bash scripting, and Linux environment. Understanding of Deep Learning fundamentals (CNN, RNN, attention/memory) and extensions (Transformer, LSTM, ResNet, etc. ). Perform statistical analysis of results and refine models. Extend ML libraries and frameworks to apply in NLP tasks. Remain updated in the rapidly changing field of machine learning.</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>models, deep learning, matplotlib, app, learning, features, it, api, nlp, ml, scipy, scripting, python, data science, machine learning, led, algorithms, numpy, processing, linux</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>17</v>
+      </c>
+      <c r="B65" t="n">
+        <v>18</v>
+      </c>
+      <c r="C65" s="1" t="n">
         <v>45019</v>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Calvary Hospital</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Security Officer (Per Diem)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Entry level</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Bronx, NY</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/jobs/view/security-officer-per-diem-at-calvary-hospital-3590312135?refId=d0%2BGUEE6VzHhq6XhEycgFw%3D%3D&amp;trackingId=HqRN1xdmP%2FSNHc%2BDPyGqCQ%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Our per diem Security Officers are required to work WEEKENDS and HOLIDAYS as well as an ON-CALL basis. Patrols Hospital and grounds to prevent fires, theft, vandalism, and illegal entry. Confronts unauthorized persons for questioning, routes or detains them, or telephones police for assistance, according to circumstances Must become familiar with Hospital floor plans, fire exits, fire alarm boxes, apparatus and fire manual. Reports any unusual conditions or malfunctioning of heating, plumbing or electrical system Assists in placing deceased in morgue and releasing same to authorized undertakers. Is responsible for morgue log and related paperwork such as death certificates, etc. Maintains morgue records and is responsible for routine signed documents to the proper departments  Requirements High school diploma or equivalent documented career experience required Experience as a fireman, policeman or watchman is desirable Ability to speak, read, writes and follow written and oral instructions Must have valid driver's license and New York State security license Manual dexterity and eye-hand-foot coordination are necessary to drive a car Ability to perform repetitive duties in making tours of building and grounds In good physical health Ability to asses and evaluate situations effectively along with attention to detail Exhibits an ability and attitude relative to the spirit of caring and tradition at Calvary Hospital as required by specific job duties and functions.  COVID-19 vaccination is required for all new hires prior to beginning employment at Calvary Hospital. If you have bona fide medical reason or religious beliefs that prevent you from being vaccinated may be entitled to a reasonable accommodation for this requirement.  Salary: $21.4120/hourly</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>it, led, building, record, app</t>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Anakin (YC S21)</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Software Engineer - App Crawling</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/software-engineer-app-crawling-at-anakin-yc-s21-3588703549?refId=p9A%2BbPSQjHH8tB9RZuQYUw%3D%3D&amp;trackingId=MKRy6LbpXAom9%2FtooUMEFQ%3D%3D&amp;position=18&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>App crawling is a difficult task and provides the foundation from which the insights are derived for pricing. You would work with multiple networking tools, proxy tools, and servers to create crawlers and platform which enables running affordable and high-frequency crawlers. With most eCommerce companies moving to app, your work is critical. App crawling is becoming difficult day by day and you have to be one step ahead with your deep knowledge of networking and relevant tools.  Experience in large companies is not required to be successful here - rather we look for smart, motivated, collaborative engineers who love solving problems and want to make an impact on our inspiring mission. You will have full ownership of challenging problems, working with a team of enthusiastic engineers designing solutions that propel Anakin toward our goals at a rapid pace. Mission success at Anakin depends on the software you produce.  Responsibilities Develop and maintain scalable web and app scraping applications. Configure and optimize the automated testing and deployment systems used to maintain over 1000+ crawlers across the company. Analyze data and bugs that require in-depth investigations. Basic Qualifications Extremely effective, self-driven builder. Bachelor's degree or equivalent experience in Computer Science or related field. Web Scraping experience with Python and Node.js. Experience with AWS services such as EC2, S3, Lambda, etc. Knowledge of networks or/and cybersecurity is a bonus. Good communicator, both written and verbal. Additional Requirements Must be available to work extended hours and weekends when needed to meet critical deadlines. Must have an aversion to politics and BS. Should let his/her work speak for him/her. Must be comfortable with uncertainty. In almost all the cases, your job will be to figure it out. Must not be bounded to comfort zone. Often, you will need to challenge yourself to go above and beyond.</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>computer science, aws, commerce, app, it, api, web scraping, python, design, web, led</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>108</v>
+      </c>
+      <c r="B66" t="n">
+        <v>109</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>45019</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Nabler (now Brainlabs)</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/data-scientist-at-nabler-now-brainlabs-3590306353?refId=IP6FU9xOabsLJ0ZAN7PpHQ%3D%3D&amp;trackingId=L2HT14itOnq8OQivRj9QXA%3D%3D&amp;position=9&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Nabler is a pure-play digital analytics company with offices in North Carolina, US and Bangalore. We enable  marketers take advanced data-driven decisions and boost the effectiveness and success across digital ecosystem.  We have a team composed of passionate professionals who come from diverse backgrounds offering solutions  across business and are grouped under core services mentioned in the website www.nabler.com  Responsibilities For Data Scientist   Work with stakeholders to build solution for leveraging data to drive business solutions.   Assess the effectiveness and accuracy of new data sources and data gathering techniques.   Develop custom data models and algorithms to apply to data sets. This would include but not limited to, using  predictive modelling to increase and optimize customer experiences, revenue generation, and ad targeting.   Coordinate with different functional teams to implement models and monitor outcomes.   Develop processes and tools to monitor and analyse model performance and data accuracy.  Requirements  Qualifications for Data Scientist   Technical: Experience using statistical computer languages (R, Python, Scala, Pyspark) to design and deploy machine  learning algorithms. Experience in visualizing output through tools like R-Shiny, Power BI, Tableau Experience in atleast one of the clouds AWS, GCP or Azure, or working in Hadoop Atleast 2 - 4 years of Experience of advanced statistical techniques and concepts, any of these - regression,  classification, time series forecasting, segmentation, etc, as well as Knowledge of deploying these as  applications   Area of expertise Preferable: Experience in Web Analytics, Web data, Media Performance data, and creating data architectures. Preferable if experienced in any of these Attribution, Customer Segmentation, Market mix modelling, Content  Optimization.   Soft Skills Excellent written and verbal communication skills for coordinating across teams, and ability to present the  findings A drive to learn and master new technologies and techniques.   Education: Bachelor’s in quantitative degree like Maths, Sciences, Stats, Ecinomics, BE/BTech, BCA or equivalent Preferable: Post graduation in quantitative area like PhD, MBA, Masters in Sciences, Masters in  Economics/Stats, M Tech, MCA or equivalent</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>git, power bi, aws, models, spark, advanced, app, learning, digital, tableau, it, python, design, web, led, algorithms, analytics, cloud, excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>29</v>
+      </c>
+      <c r="B67" t="n">
+        <v>30</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>45019</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Nabler (now Brainlabs)</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/data-scientist-at-nabler-now-brainlabs-3590306353?refId=MMEwGK70qNRql%2Fb8Z0R4cw%3D%3D&amp;trackingId=IOnQyk3s6K%2F2UTMHA1QexA%3D%3D&amp;position=5&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Nabler is a pure-play digital analytics company with offices in North Carolina, US and Bangalore. We enable  marketers take advanced data-driven decisions and boost the effectiveness and success across digital ecosystem.  We have a team composed of passionate professionals who come from diverse backgrounds offering solutions  across business and are grouped under core services mentioned in the website www.nabler.com  Responsibilities For Data Scientist   Work with stakeholders to build solution for leveraging data to drive business solutions.   Assess the effectiveness and accuracy of new data sources and data gathering techniques.   Develop custom data models and algorithms to apply to data sets. This would include but not limited to, using  predictive modelling to increase and optimize customer experiences, revenue generation, and ad targeting.   Coordinate with different functional teams to implement models and monitor outcomes.   Develop processes and tools to monitor and analyse model performance and data accuracy.  Requirements  Qualifications for Data Scientist   Technical: Experience using statistical computer languages (R, Python, Scala, Pyspark) to design and deploy machine  learning algorithms. Experience in visualizing output through tools like R-Shiny, Power BI, Tableau Experience in atleast one of the clouds AWS, GCP or Azure, or working in Hadoop Atleast 2 - 4 years of Experience of advanced statistical techniques and concepts, any of these - regression,  classification, time series forecasting, segmentation, etc, as well as Knowledge of deploying these as  applications   Area of expertise Preferable: Experience in Web Analytics, Web data, Media Performance data, and creating data architectures. Preferable if experienced in any of these Attribution, Customer Segmentation, Market mix modelling, Content  Optimization.   Soft Skills Excellent written and verbal communication skills for coordinating across teams, and ability to present the  findings A drive to learn and master new technologies and techniques.   Education: Bachelor’s in quantitative degree like Maths, Sciences, Stats, Ecinomics, BE/BTech, BCA or equivalent Preferable: Post graduation in quantitative area like PhD, MBA, Masters in Sciences, Masters in  Economics/Stats, M Tech, MCA or equivalent</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>git, power bi, aws, models, spark, advanced, app, learning, digital, tableau, it, python, design, web, led, algorithms, analytics, cloud, excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>76</v>
+      </c>
+      <c r="B68" t="n">
+        <v>77</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>45018</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Sagacito Technologies</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Machine learning</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Delhi, India</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/machine-learning-at-sagacito-technologies-3586106651?refId=3XAhmb0E78rdz8IvvT6w4Q%3D%3D&amp;trackingId=cq8v6wXj5%2B4IaZNfSNhSdg%3D%3D&amp;position=2&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Location: Gurgaon Role: The person will be part of data science team. This person will be working on a close basis with the business analysts and the technology team to deliver the Data Science portion of the project and product. Data Science contribution to a project can range between 30% to 80%. Day to Day activities will include data exploration to solve a specific problem, researching of methods to be applied as solution, setting up ML process to be applied in context of a specific engagement/ requirement, contributing to building a DS platform, coding the solution, interacting with client on explanations, integration the DS solution with the technology solution, data cleaning and structuring etc. Nature of work will depend on stage of a specific engagement, available engagements and individual skill At least 2-6 years of experience in: Machine Learning (including deep learning methods): Algorithm design, analysis and development and performance improvement o Strong understanding of statistical and predictive modeling concepts, machine-learning approaches, clustering, classification, regression techniques, and recommendation (collaborative filtering) algorithms o Time Series Analysis o Optimization techniques and work experience with solvers for MILP and global optimization. Data Science o Good experience in exploratory data analysis and feature design &amp; development o Experience of applying and evaluating ML algorithms to practical predictive modeling scenarios in various verticals including (but not limited to) FMCG, Media, E-commerce and Hospitality. Proficient with programming in Python (must have) &amp; PySpark (good to have). Parallel ML algorithms design and development and usage for maximal performance on multi-core, distributed and/or GPU architectures. Must be able to write a production ready code with reusable components and integration into data science platform. Strong inclination to write structured code as per prevailing coding standards and best practices. Ability to design a data science architecture for repeatability of solutions Preparedness to manage whole cycle from data preparation to algorithm design to client presentation at individual level. Comfort in working on AWS including managing data science AWS servers Team player and good communication and interpersonal skills Good experience in Natural Language Processing and its applications (Good to Have) Skills:- Machine Learning (ML), Natural Language Processing (NLP), Python and Data Science</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>research, aws, spark, data analysis, deep learning, commerce, data cleaning, app, learning, project, it, nlp, ml, search, python, design, building, data science, e-commerce, machine learning, algorithms, processing</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>75</v>
+      </c>
+      <c r="B69" t="n">
+        <v>76</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>45018</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>CharIoT Tech</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Machine learning Developer</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Delhi, India</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/machine-learning-developer-at-chariot-tech-3586103961?refId=3XAhmb0E78rdz8IvvT6w4Q%3D%3D&amp;trackingId=G0ek27CrWgNh1NugrMa%2BkQ%3D%3D&amp;position=1&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>We are looking for a Machine Learning Developer who possesses apassion for machine technology &amp; big data and will work with nextgeneration Universal IoT platform.Responsibilities: Design and build machine that learns , predict and analyze data. Build and enhance tools to mine data at scale Enable the integration of Machine Learning models in Chariot IoTPlatform Ensure the scalability of Machine Learning analytics across millionsof networked sensors Work with other engineering teams to integrate our streaming,batch, or ad-hoc analysis algorithms into Chariot IoT's suite ofapplications Develop generalizable APIs so other engineers can use our workwithout needing to be a machine learning expert Skills:- Machine Learning (ML), Big Data and Data Science</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>models, app, learning, it, api, ml, design, data science, machine learning, algorithms, analytics</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>105</v>
+      </c>
+      <c r="B70" t="n">
+        <v>106</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>PayU</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/data-scientist-at-payu-3587658061?refId=IP6FU9xOabsLJ0ZAN7PpHQ%3D%3D&amp;trackingId=UXknyjryvln5vrty2GHR5A%3D%3D&amp;position=6&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>About PayU  PayU, a leading payment and Fintech company in 50+ high-growth markets throughout Asia, Central and Eastern Europe, Latin America, the Middle East and Africa, part of Prosus group, one of the largest technology investors in the world is redefining the way people buy and sell online for our 300.000 + merchants and millions of consumers.  As a leading online payment service provider, we deploy more than 400 payment methods and PCI-certified platforms to process approximately 6 million payments every single day.  Thinking of becoming a PayUneer and you are curious to know more about us? Read more about the life in PayU here  Responsibilities  Design experiments, test hypotheses, and build models utilizing the traditional datasets and graph data. Apply advanced statistical and predictive modeling techniques to build, maintain, and improve on multiple real-time decision systems. Identify what data is available and relevant, including internal and external data sources, leveraging new data collection processes such as geo-location or social media. Utilize patterns and variations in the volume, speed and other characteristics of data for predictive analysis. Extending company’s data with third party sources of information when needed Creating automated anomaly detection systems and constant tracking of its performance Collaborate with various stakeholders (e.g. tech, product) to understand and design best solutions which can be implemented  Skills And Qualifications  Bachelors in engineering, mathematics, statistics , economics or a related field. 2+ years of work experience as a Data scientist preferably in a fintech environment Proficiency in statistical analysis, quantitative analytics, forecasting/predictive analytics, multivariate testing, and optimization algorithms. Proficient in machine learning (SVM, GLM, boosting, random forest) and deep neural networks Strong programming skills (Spark or other big data frameworks, R, Python), statistical modeling (R, Python, SAS), query languages such as SQL Working on Big Data to develop analytical solutions Enable machine learning algorithms on graph databases Working on cutting-edge techniques e.g. machine learning and deep learning models Guide and enable junior team members Collaborate with various stakeholders (e.g. tech, product) to understand and design best solutions which can be implemented  Add-on Skills :  Experience in working with big data  Solid coding practices  Passion for building new tools/algorithms  Experience in developing Machine Learning models  Behavioral Skills:  Team Player  Perseverance  Knowledge sharing skills  Energetic &amp; Positive attitude  Go getter instinct  So what do we offer?  Opportunity to work on exceptional projects using cutting edge technology in big data environment  A Competitive salary, including benefits  Modern offices with individual working spaces  Awesome teams that love finding ways of making things better, faster, stronger  Interesting growth prospects  About us:  At PayU, we are a global fintech investor and our vision is to build a world without financial borders where everyone can prosper. We give people in high-growth markets the financial services and products they need to thrive. Our expertise in 18 high-growth markets enables us to extend the reach of financial services. This drives everything we do, from investing in technology entrepreneurs, to offering credit to underserved individuals, to helping merchants buy, sell and operate online. Being part of Prosus, one of the largest technology investors in the world, gives us the presence and expertise to make a real impact. Find out more www.payu.com  Our Commitment To Building A Diverse And Inclusive Workforce  As a global and multi-cultural organization with varied ethnicities thriving across locations, we realize that our responsibility towards fulfilling the D&amp;I commitment is huge. Therefore, we continuously strive to create a diverse, inclusive and safe environment, for all of our people, communities and customers. Our leaders are committed to create an inclusive work culture which enables transparency, flexibility and unbiased attention to each and every PayUneer so they can succeed, irrespective of gender, color or personal faith. An environment where every person feels they belong, that they are listened to, and where they are empowered to speak up. At PayU we have zero tolerance towards any form of prejudice whether a specific race, ethnicity, or of persons with disabilities or the LGBTQ communities.</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>rest, databases, models, spark, advanced, datasets, deep learning, app, learning, project, it, color, sql, inform, python, design, building, machine learning, led, algorithms, analytics, database</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>36</v>
+      </c>
+      <c r="B71" t="n">
+        <v>37</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>45016</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Till POS</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Junior Software Engineer</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/junior-software-engineer-at-till-pos-3579301399?refId=MMEwGK70qNRql%2Fb8Z0R4cw%3D%3D&amp;trackingId=N3rCraY%2Fyuvmh7WjnSVwEA%3D%3D&amp;position=12&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>We're looking for someone who has a passion for technology and continuous improvement and enjoys a collaborative approach to software development.  As a young engineer - advancing well into your career, this is the right place to be! With exposure to the latest and cutting-edge technology and working in a core product company, you will enhance your skills and grow with us, learn and most importantly work in a cross-cultural environment from teams in Australia and India.  Responsibilities  Designing, implementing, testing, and deploying various software products. Contributing to the overall technical solution design. Provide thought leadership and make contributions to continually improve cross-platform development practices. Participating in engineering practices that produce testable, maintainable products to be proud of. Knowledge sharing and mentoring other developers within the team and the wider REA community. Perform code reviews and documentation as well as take on complex bug fixes, especially on high-risk problems. Set the standard for thorough, meaningful code reviews. Work in collaboration with team members and adhere to timelines and milestones.  Requirements  1-2 years experience in Mobile/Web Development Experience. Have a passion for Reactjs, JavaScript, and Node Js and am excited to advocate for the platform. Excellent JavaScript/Typescript skills. Applies security and reliability principles when designing systems. Stay abreast of the latest React and JS libraries and can offer well-formed opinions when selecting a tech stack. GraphQL and Typescript skills are a plus but not mandatory. Considers the customer impact when making technical decisions. Really good communicator both with the stakeholders and the team. A real appetite for learning and growing, both as a developer and teammate. A strong foundation in HTML5 CSS and JavaScript DOM. Agile development, experience with scrum or kanban.</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>web development, app, learning, it, ml, design, web, led, excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>124</v>
+      </c>
+      <c r="B72" t="n">
+        <v>125</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>45016</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Kadel Labs</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Software Engineer - Python</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Udaipur, Rajasthan, India</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/software-engineer-python-at-kadel-labs-3579546019?refId=IP6FU9xOabsLJ0ZAN7PpHQ%3D%3D&amp;trackingId=GV7%2BOB%2FXPhYMMpWjmaYSGg%3D%3D&amp;position=25&amp;pageNum=4&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Software Engineer - Python (Job ID ZR_176_JOB)  Kadel Labs is a software development company with a synergetic blend of IT Services and SaaS products under its portfolio. Since 2017, KL has grown organically (150+ employees and expanding) and served 200+ Customers. At the core, KL is a people's company. We serve clients by practicing an employee-centric culture and creating an environment where ideas, creativity, free-flowing communication and innovation are encouraged to create better products and services.  Role: Software Engineer - Python  Experience: 1-5 years  Location: Udaipur  Job Description  We are looking for an experienced Python developer to join our engineering team and help us create dynamic software applications for our clients. In this role, you will be responsible for writing scalable code, developing back-end components, and integrating user-facing elements in collaboration with front-end developers. To be successful as a Python developer, you should possess in-depth knowledge of object-relational mapping, experience with server-side logic, and above-average knowledge of Python programming. Ultimately, a top-class Python developer is able to design highly responsive web-applications that perfectly meet the needs of the client.  Responsibilities  Coordinating with development teams to determine application requirements. Writing scalable code using Python programming language. Developing back-end components. Integrating user-facing elements using server-side logic. Assessing and prioritizing client feature requests. Integrating data storage solutions. Coordinating with front-end developers. Reprogramming existing databases to improve functionality. Developing digital tools to monitor online traffic.  Requirements/Skills  Bachelor's degree in computer science, computer engineering, or related field. 1-5 years of experience as a Python developer. Knowledge of Python and related frameworks including Django and Flask. A deep understanding and multi-process architecture and the threading limitations of Python. Familiarity with server-side templating languages including Jinja 2 and Mako. Ability to integrate multiple data sources into a single system. Familiarity with testing tools. Ability to collaborate on projects and work independently when required.  Education and Experience : BTech or relevant educational field required  (ref:hirist.com)</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>computer science, git, databases, app, digital, project, it, python, django, design, web, flask, led, writing, database</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>90</v>
+      </c>
+      <c r="B73" t="n">
+        <v>91</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>45016</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Transerve</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Panaji, Goa, India</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/data-scientist-at-transerve-3578694553?refId=3XAhmb0E78rdz8IvvT6w4Q%3D%3D&amp;trackingId=KnXjmGkYSKJeyaUWMafIUg%3D%3D&amp;position=16&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Responsibilities  Perform spatial analytics on location datasets Create new processing algorithms for solving specific business problems that involve location data analytics Create ETL processing pipelines for Big Data analytics (specifically large location datasets) Selecting features, building and optimizing classifiers using machine learning techniques Doing ad-hoc analysis and presenting results in a clear manner Optimize code for maximum speed and scalability Assure that all user input is validated before submitting the code Collaborate with other team members and stakeholders Taking ownership of features and accountability  Requirements  Working knowledge of tools and technologies like Apache Spark, Dask, Sedona Excellent understanding of machine learning techniques and algorithms, such as k-NN, Naive Bayes, SVM, Decision Forests, etc. Proficient understanding of Python or PySpark In-depth understanding and experience on databases such as MongoDB and Post GRES Excellent Python scripting, data presentation and visualization skills, including web programming on Python Working knowledge of Python Web Frameworks: Django/Flask Good, applied statistics skills, such as distributions, statistical testing, regression, etc. Ability to provide accurate estimates for tasks and detailed breakdowns for planning and managing sprints Passion for solving challenging issues. Promote cooperation and commitment within a team to achieve common goals.</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>rest, databases, spark, datasets, app, learning, features, it, scripting, apache, visualization, python, etl, django, data analytics, building, web, machine learning, flask, led, algorithms, analytics, processing, excel, database</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>54</v>
+      </c>
+      <c r="B74" t="n">
+        <v>55</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>45016</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Till POS</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Junior Software Engineer</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/junior-software-engineer-at-till-pos-3579301399?refId=%2Fbqm7BL%2BlGtUTG9QMchYVQ%3D%3D&amp;trackingId=liLPBqrTvcT45TxJZZ6Iuw%3D%3D&amp;position=5&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>We're looking for someone who has a passion for technology and continuous improvement and enjoys a collaborative approach to software development.  As a young engineer - advancing well into your career, this is the right place to be! With exposure to the latest and cutting-edge technology and working in a core product company, you will enhance your skills and grow with us, learn and most importantly work in a cross-cultural environment from teams in Australia and India.  Responsibilities  Designing, implementing, testing, and deploying various software products. Contributing to the overall technical solution design. Provide thought leadership and make contributions to continually improve cross-platform development practices. Participating in engineering practices that produce testable, maintainable products to be proud of. Knowledge sharing and mentoring other developers within the team and the wider REA community. Perform code reviews and documentation as well as take on complex bug fixes, especially on high-risk problems. Set the standard for thorough, meaningful code reviews. Work in collaboration with team members and adhere to timelines and milestones.  Requirements  1-2 years experience in Mobile/Web Development Experience. Have a passion for Reactjs, JavaScript, and Node Js and am excited to advocate for the platform. Excellent JavaScript/Typescript skills. Applies security and reliability principles when designing systems. Stay abreast of the latest React and JS libraries and can offer well-formed opinions when selecting a tech stack. GraphQL and Typescript skills are a plus but not mandatory. Considers the customer impact when making technical decisions. Really good communicator both with the stakeholders and the team. A real appetite for learning and growing, both as a developer and teammate. A strong foundation in HTML5 CSS and JavaScript DOM. Agile development, experience with scrum or kanban.</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>web development, app, learning, it, ml, design, web, led, excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>13</v>
+      </c>
+      <c r="B75" t="n">
+        <v>14</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>45016</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Candor Health</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/machine-learning-engineer-at-candor-health-3578680420?refId=p9A%2BbPSQjHH8tB9RZuQYUw%3D%3D&amp;trackingId=S1IvXuGm66wpMWSeFssicQ%3D%3D&amp;position=14&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Responsibilities  Apply ML algorithms and concepts to solve critical data challenges in the healthcare ecosystem Design machine learning systems and pipelines from scratch Fine-tune and optimize training models to continuously improve data quality Research and stay up-to-date on the most recent ML algorithms and tools Be able to relay key findings and insights to stakeholders using easy to understand diagrams and other visuals Proactive attitude on raising problems and providing solutions  Requirements  Bachelor/Master degree in Engineering, Computer Science or relevant field Experience as a Machine Learning Engineer or similar role Good programming experience in Python or other programming languages fit for ML Experience in building, deploying, and improving Machine Learning models and algorithms in real-world products Knowledge of linear algebra, probability, statistics and algorithms Experience in Artificial Intelligence, Machine Learning (ML) models, ML infrastructure, Natural Language Processing or Deep Learning Experience in data visualization using tools like Tableau or others to relay product insights</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>computer science, research, models, deep learning, app, learning, tableau, it, ml, data visualization, search, visualization, python, design, building, machine learning, led, algorithms, processing, infrastructure</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>87</v>
+      </c>
+      <c r="B76" t="n">
+        <v>88</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>45016</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>GoodWorkLabs</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Data Engineer - Python/Deep Learning</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/data-engineer-python-deep-learning-at-goodworklabs-3579543011?refId=3XAhmb0E78rdz8IvvT6w4Q%3D%3D&amp;trackingId=hfnv8zJaYw8NofpkXpNKlQ%3D%3D&amp;position=13&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Company : Good Work Labs - Client Project  Loc : Bangalore  NP : Immediate-Max 15days  Exp : 3-7Years  Role : Python deep learning library developer  Summary  The candidate should be a good programmer with experience in python development, specifically computational packages like numpy and Pytorch.  Job Responsibilities  Curate and prepare dataset from synthetic image data generated from in-house development tool for deep learning. Streamline and establish optimize data pre-processing pipelines to create good training data for deep learning Basic training of computer vision deep learning models Basic analysis of results and discuss with peers on potential improvements in data and models  Profile  Bachelor's degree in Computer Science / Information Technology / Electronics / Electrical Minimum 3 years of experience and strong knowledge of python programming for deep learning (pytorch/keras/tensorflow) in linux/unix environment. Familiar with pytorch is good to have  (ref:hirist.com)</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>computer science, models, deep learning, keras, learning, unix, project, it, ml, inform, python, led, numpy, processing, linux</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>125</v>
+      </c>
+      <c r="B77" t="n">
+        <v>126</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>45013</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Xybion Digital</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Software Engineer - Entry Level - Java</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Chennai, Tamil Nadu, India</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/software-engineer-entry-level-java-at-xybion-digital-3580761466?refId=n05x%2Bj4PpBsT2234tP2yaw%3D%3D&amp;trackingId=QsRaeDpLhejLq2xUrtW27w%3D%3D&amp;position=1&amp;pageNum=5&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Xybion is seeking Entry Level Java Developers to be part of the state-of-the-art software development team. The team provides industry leading IT based applications &amp; solutions for our clients, utilizing Java technologies. The candidate will be focusing on the Java components, working with and alongside client to customize, develop and deploy our cloud based SAAS solutions.  The Candidate must enjoy working in an agile development environment, where the measure of success is the swift and frequent delivery of useful software.  Roles &amp; Responsibilities:  Plan, design, develop, document, test, deploy, and support new and existing features/modules.  Key objectives critical to success in this role:  Expert in development with Java Technology (Java EE, Spring). Knowledge of web technologies (JavaScript, HTML, CSS). Understanding of NodeJs / AngularJs / ReactJs. Domain Knowlede of Maven &amp; Vaadin. Understanding of Oracle / No-SQL Database (Mongo). BE/B Tech/BCA/MCA/B.Sc in computer science or equivalent from an A-grade engineering college or good academic result from B/C-grade engineering college.  About Xybion  Xybion is the leading provider of software, services and consulting for global corporations operating in highly regulated industries. Xybion specializes in the development and delivery of flexible enterprise solutions that can be easily configured, integrated or deployed out of the box to deliver the capabilities you need. Leveraging our extensive global experience working with companies of all sizes, we offer deep domain knowledge of FDA regulations and have a long track record of helping clients build effective compliance and risk mitigation strategies and solutions.  Powered by JazzHR  DVK74eF6fY</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>computer science, app, features, it, ml, sql, design, web, record, led, cloud, database</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>135</v>
+      </c>
+      <c r="B78" t="n">
+        <v>136</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>45013</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Cricketpedia</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Data Scientist - NLP/Machine Learning</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Gurugram, Haryana, India</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/data-scientist-nlp-machine-learning-at-cricketpedia-3577182972?refId=n05x%2Bj4PpBsT2234tP2yaw%3D%3D&amp;trackingId=YDNFV6S%2FzhtjBuda%2FN0VdQ%3D%3D&amp;position=11&amp;pageNum=5&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Apply If You  Love cricket Want to build the most powerful stat focused search engine Have fun coding and solve interesting problems Enjoy high-energy, fast-growing workplace  What will you do?  Change the way stats are consumed by building world's first Moneyball for Cricket' platform  Requirements  A degree in Data Science, Statistics, Computer Science, or not More than a year's experience as a Data Scientist Proficiency in Python or Django, where the latter is preferred Understanding of first principles of machine learning Preferably worked on NLP-centric projects earlier  ,  This job is provided by Shine.com</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>computer science, rest, app, learning, project, nlp, search, python, django, building, data science, machine learning</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>91</v>
+      </c>
+      <c r="B79" t="n">
+        <v>92</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>45005</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Gameberry Labs</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Software Development Engineer 1</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/software-development-engineer-1-at-gameberry-labs-3563650158?refId=3XAhmb0E78rdz8IvvT6w4Q%3D%3D&amp;trackingId=ujUlPuzjNH2AXwF9oJUShg%3D%3D&amp;position=17&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>As a Software Engineer, we expect you to be motivated in solving real-life complex problems and create compelling experiences for our Players. Being a small company we have a culture of creative problem-solving, intellectual design, fast-paced development, and passionate product delivery. The pace of our growth is incredible. If you want to tackle hard, interesting and UNIQUE problems, and create an impact within an entrepreneurial environment, Join us!  Responsibilities  Collaborate with teams to develop and support the smooth 24x7 operation of our service Create prototypes and proofs-of-concept for iterative development. Keen to learn new technologies and apply the knowledge in production systems. Reduce technical debt with quality coding.  Requirements  Solid understanding and knowledge in programming languages like C++, GoLang, etc. Strong knowledge of any of the databases like MySQL, Mongo. Have hands-on experience with systems that are asynchronous, RESTful and demand concurrency. Good to have knowledge of best software engineering practices for all stages of the software development life cycle.</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>rest, databases, app, it, sql, design, mysql, led, database</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>65</v>
+      </c>
+      <c r="B80" t="n">
+        <v>66</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>45004</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>eStaffing Inc.</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Software Engineer (Entry Level)_Remote</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/software-engineer-entry-level-remote-at-estaffing-inc-3531202627?refId=%2Fbqm7BL%2BlGtUTG9QMchYVQ%3D%3D&amp;trackingId=66WqPU5HtngiPxE7N9DB8w%3D%3D&amp;position=16&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Job Tittle- Software Engineer (Entry Level)  Job Location- Anywhere (India)_Remote  Positions- 2  Responsibilities Applies defined practices and procedures to design, implement, and support software projects Builds effective working relationships with team members Actively seeks assistance as needed but demonstrates learning and growing independence Actively seeks guidance for prioritization and review of deliverables. Performs and designs testing protocols to ensure that the product is fully tested. Requirements Graduate or Undergraduate with BE, Btech, MCA, MSC, or BCA Computer Science or related technical field . Experience developing software or algorithms based on predetermined specifications Knowledge of object-oriented programming, Microsoft .Net or Java preferred Proficient with Source Control tools Familiarity with database objects (tables, stored procedures, queries, etc.) a plus Attention to detail is a must Good written and verbal communication skills</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>computer science, app, learning, project, it, store, design, led, algorithms, database</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>46</v>
+      </c>
+      <c r="B81" t="n">
+        <v>47</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>45004</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>eStaffing Inc.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Software Engineer (Entry Level)_Remote</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/software-engineer-entry-level-remote-at-estaffing-inc-3531202627?refId=MMEwGK70qNRql%2Fb8Z0R4cw%3D%3D&amp;trackingId=39WkBTSLnc0AbvgMpMiAXA%3D%3D&amp;position=22&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Job Tittle- Software Engineer (Entry Level)  Job Location- Anywhere (India)_Remote  Positions- 2  Responsibilities Applies defined practices and procedures to design, implement, and support software projects Builds effective working relationships with team members Actively seeks assistance as needed but demonstrates learning and growing independence Actively seeks guidance for prioritization and review of deliverables. Performs and designs testing protocols to ensure that the product is fully tested. Requirements Graduate or Undergraduate with BE, Btech, MCA, MSC, or BCA Computer Science or related technical field . Experience developing software or algorithms based on predetermined specifications Knowledge of object-oriented programming, Microsoft .Net or Java preferred Proficient with Source Control tools Familiarity with database objects (tables, stored procedures, queries, etc.) a plus Attention to detail is a must Good written and verbal communication skills</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>computer science, app, learning, project, it, store, design, led, algorithms, database</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>99</v>
+      </c>
+      <c r="B82" t="n">
+        <v>100</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Qween Network LLP</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Junior ML Engineer</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Bangalore Urban, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/junior-ml-engineer-at-qween-network-llp-3479261689?refId=3XAhmb0E78rdz8IvvT6w4Q%3D%3D&amp;trackingId=Fgrt7a07Bkou3gucbP5O8Q%3D%3D&amp;position=25&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Experience: 3 to 4 years  Salary: upto 22 LPA  Location: Bangalore  Key Responsibilities Studying, transforming, and converting data science prototypes Deploying models to production Training and retraining models as needed Analyzing the ML algorithms that could be used to solve a given problem and ranking them by their respective scores Analyzing the errors of the model and designing strategies to overcome them Identifying differences in data distribution that could affect model performance in real-world situations Performing statistical analysis and using results to improve models Supervising the data acquisition process if more data is needed Defining data augmentation pipelines Defining the pre-processing or feature engineering to be done on a given dataset To extend and enrich existing ML frameworks and libraries Understanding where the findings can be applied to business decisions Documenting machine learning processes Role Proficiencies 6+ years of IT experience in which at least 4+ years of relevant experience primarily in converting data science prototypes and deploying models to production Knowledge of Big Data frameworks like Hadoop, Spark, Pig, Hive, Flume, etc Proficiency with Python and machine learning libraries such as scikit-learn, matplotlib, seaborn and pandas Experience in working with ML frameworks like TensorFlow, Keras, OpenCV Strong written and verbal communications Excellent interpersonal and collaboration skills. Expertise in visualizing and manipulating big datasets Advanced Math and Statistics skills (linear algebra, calculus, Bayesian statistics, mean, median, variance, etc.) Advanced degree in Computer Science/Math/Statistics or a related discipline. Robust data modelling and data architecture skills.</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>computer science, pandas, models, spark, advanced, datasets, keras, matplotlib, app, learning, opencv, it, ml, python, design, data science, machine learning, led, algorithms, processing, excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>28</v>
+      </c>
+      <c r="B83" t="n">
+        <v>29</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>44966</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>izmo ltd</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Data Engineer (Python)</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Bangalore Urban, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/data-engineer-python-at-izmo-ltd-3507664900?refId=MMEwGK70qNRql%2Fb8Z0R4cw%3D%3D&amp;trackingId=3w%2Bc%2Flm0eZAc8lgveWAbCw%3D%3D&amp;position=4&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>izmo Ltd. (www.izmoltd.com) is a leading software products company based in Bangalore with operations in 7 countries. izmo Ltd., is a publicly listed company on the BSE &amp; NSE and we are expanding rapidly through global expansion with offices in San Francisco, Los Angeles, Paris, Brussels &amp; Bangalore, we are the largest producers of content for the automotive industry globally.  Our automotive division - izmocars is a leading provider of automotive solutions globally with operations in North America, Europe, and Asia. We provide retail solutions for online eCommerce, CRM, and Data Analytics for the automotive industry.  Our clients are Automotive OEMs, large dealer groups, rental car companies, and leading online portals. We are expanding our Global Development Centre in Bangalore and are looking for a dynamic Data Manager.  ## Immediate Joiners Preferred ##  ## This position is based in Bangalore. Remote working is not an option, so please don't apply if you're not willing to relocate. ##  FrogData is an Auto Dealer Analytics Platform designed for Dealer Principals, General Managers and CFOs. Our platform delivers Advanced Reporting, Business Insights and Predictive Analytics for Auto Dealers, helping them make better decisions that have positive impact on their business.  We are part of a diversified automotive solutions company with offices around the world and we service thousands of dealerships worldwide. We intend to establish FrogData as a dominant player in the analytics market for the automotive industry and are investing heavily in technology and people.  Responsibilities Design, build, test, deploy and maintain the decision analytics platform provided as a cloud-based subscription service for customers Develop software for the platform using Python, pandas, MongoDB, AngularJS, etc. Data extraction, loading, transformation (ELT), enrichment, analytics, and visualization Skills To get the job: we assess your skills in software engineering with Python and pandas. Python is the highest-ranked way to build analytics systems, and pandas is used for data transformations At work: you will develop skills in Python and pandas for data analysis and visualization, event-driven AWS SaaS analytics architecture, the MongoDB NoSQL database, and front-end coding in JavaScript, CSS, and HTML. The opportunity is to create a multi-enterprise decision analytics platform that goes from data to insights and then from insights to value. This is the future of analytics  Work Experience: 2 to 5 Years of relevant prior experience</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>aws, pandas, data analysis, advanced, commerce, app, it, api, ml, ltd, sql, visualization, python, data analytics, design, operations, analytics, cloud, database</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>132</v>
+      </c>
+      <c r="B84" t="n">
+        <v>133</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>44956</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>IDESLABS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/data-scientist-at-ideslabs-private-limited-3455847730?refId=n05x%2Bj4PpBsT2234tP2yaw%3D%3D&amp;trackingId=Stt7Ri7yo91rTsrU9deV0Q%3D%3D&amp;position=8&amp;pageNum=5&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Job Description  Data Scientist with SAS 2 (No. of requirements)  Data Scientist with SAS platform experience on data science and data engineering with a Manufacturing background  Experience  10+ with 5+ relative experience in Data Science SAS in manufacturing vertical  Location  Bangalore/Pune  Key Responsibilities Work closely with business stakeholders to identify value and business needs and translate them into concrete data science problem statements Work closely with technology, engineers and data scientists in defining data elements and sources, wrangle, cleanse and analyze large amounts of data in our cloud-based development and production environment Rapidly prototype and iterate to build production ready solutions that scale Identify and build the right user experience so that the output of your ML workflows is easily interpretable and actionable by the business users Tune your models efficiently and clean and interpretable code Improve and develop machine learning models using state-of-the-art techniques within deep learning and others Participate in the full life cycle of solutions, from early-stage rapid prototyping through to scaled implementation and continuous improvement after initial launch About IDESLABS, Summarized our services for quick understanding of IDESLABS’s offeringS  Training Services We have 9000 + trainer ecosystem 700 Plus courses across technologies, Delivered 45000 Plus of training across Geographies. Virtual Training to 150 + Professionals on monthly basis across technologies Training Partner for large corporations such as Wipro, Tech M, Infosys, Mylan etc Delivered training across the globe, Americas, Europe, South Africa, and Pan Asia Consulting Services Resourcing for both contract and Permanent positions 150000 + inhouse database 30 plus strong recruiter base based out of India. 75 + resources working at multiple customer locations. Partners for large IT houses such as WIPRO, NTTDATA, DXC, HCL &amp;Tech M Catering to customers in US, Europe, UK, Middle East, and APAC (India &amp; Singapore) Looking forward to work with you.</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>models, deep learning, learning, workflow, it, api, ml, data science, machine learning, led, cloud, database</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>140</v>
+      </c>
+      <c r="B85" t="n">
+        <v>141</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>44951</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Resemble Systems</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Freshers – Associate Software Engineer-kochi</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Kochi, Kerala, India</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/freshers-%E2%80%93-associate-software-engineer-kochi-at-resemble-systems-3478058028?refId=n05x%2Bj4PpBsT2234tP2yaw%3D%3D&amp;trackingId=iwf%2FGlen6tmGEoNw4%2FjpwQ%3D%3D&amp;position=16&amp;pageNum=5&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Resemble systems is hiring for freshers as Software Engineer  Must have good Analytical and Problem-Solving Skills Quick learner, good communication, presentation, and interpersonal skills. Knowledge of multiple back-end languages (e.g. Java ) and JavaScript frameworks (e.g. Angular, React, Node.js) Familiarity with databases Excellent communication and teamwork skills Should be a 2020/2021 Batch pass out B.E/ B.Tech. graduate in one of the following disciplines only: Computer Science or Information Technology or Information Science.  Work Location: Kochi  work from office  Freshers</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>computer science, databases, it, inform, led, excel, database</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>73</v>
+      </c>
+      <c r="B86" t="n">
+        <v>74</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>44945</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>CIEL HR</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Management Trainee - Machine Learning AND Deep Learning AND Python experience mandatory - For Pune only</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Pune/Pimpri-Chinchwad Area</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/management-trainee-machine-learning-and-deep-learning-and-python-experience-mandatory-for-pune-only-at-ciel-hr-3441846430?refId=%2Fbqm7BL%2BlGtUTG9QMchYVQ%3D%3D&amp;trackingId=SkAOARqOsYqD%2BQeHtjstAA%3D%3D&amp;position=24&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Fresh IT graduates Technical skills  1.1 Should be able to write and understand code using python/Scala/java with good understanding of data structures and OOPs.  1.2 Conceptual understanding of database(SQL/NoSQL) and should be able to write SQL statements (basic and semi advanced).  1.3 Exposure to Big Data technologies like Hadoop, hive, spark, Kafka or any distributed processing framework.  1.4 Basic understanding of DevOps and Software Development Life Cycle.  1.5 Good to have  2.5.1 Exposure to any one cloud (AWS/GCP/Azure).  2.5.2 Scripting language Shell scripts or PowerShell.  Non-Technical skills  2.1 Clarity in communication.  2.2 Eager to learn new things.</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>aws, spark, advanced, it, scripting, sql, python, cloud, processing, database</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>32</v>
+      </c>
+      <c r="B87" t="n">
+        <v>33</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>44939</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>GrenoSearch India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Bangalore Urban, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/data-scientist-at-grenosearch-india-pvt-ltd-3434297830?refId=MMEwGK70qNRql%2Fb8Z0R4cw%3D%3D&amp;trackingId=T%2F8eAK0YlKSnOwEfuOt%2BqQ%3D%3D&amp;position=8&amp;pageNum=1&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Location: Bangalore, Hyderabad  Job Description  5+ Years Experience Experience working with Python Expert knowledge of SQL Experience working with statistical and machine learning models Experience working with large data sets or being able to create a customer 360-degree view. Proven track record of end-to-end process ownership Effective stakeholder management Self-sufficiency and attention to detail Professional working proficiency (written and spoken) in English Experience working with Python Expert knowledge of SQL Experience working with statistical and machine learning models Experience working with large data sets or being able to create a customer 360-degree view. Proven track record of end-to-end process ownership Effective stakeholder management Self-sufficiency and attention to detail Professional working proficiency (written and spoken) in English</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>models, learning, it, sql, python, record, machine learning, led</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>82</v>
+      </c>
+      <c r="B88" t="n">
+        <v>83</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>44909</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>RipplesIndia Group</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Machine Learning Engineer - Gurugram</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Associate</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Gurgaon, Haryana, India</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/machine-learning-engineer-gurugram-at-ripplesindia-group-3395775030?refId=3XAhmb0E78rdz8IvvT6w4Q%3D%3D&amp;trackingId=3WoRdj%2BOvirTWY3vlvR4nA%3D%3D&amp;position=8&amp;pageNum=3&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Position- Machine Learning Engineer (Requirement: 4) hiring for an International Airline Company  Location- Gurugram  Job Overview  Using prediction and forecasting algorithms to increase the revenue.  Eligibility Criteria  B.Tech/B.E./M.Tech/M.E. ("IT or Computer Science" -- Only)  2-7 years  Skills &amp; Attributes Ability to create end to end machine learning pipeline (data normalisation, transformation, model building, forecasting, retraining, measuring accuracy) Experience in connecting to data with SQL. Knowledge of data visualization software like Tableau. Machine learning Python (numpy, pandas, sklearn, matplotlib, jupyter notebook mandatory) Python (keras/tensorflow/streamlit good to have) Excellent Communication skills- Both Written and Oral. Ability to work in a collaborated way in a team environment and across departments Ability to write elegant code with suitable comments. Strong foundation in data structures Key Responsibilities Candidate will work on problems such as predicting forward loads, seasonality, revenue, etc. Clustering, classification of routes based on different criteria to transform revenue management.</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>computer science, pandas, keras, matplotlib, learning, tableau, it, ml, data visualization, sql, visualization, python, building, model building, machine learning, led, algorithms, numpy, excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>71</v>
+      </c>
+      <c r="B89" t="n">
+        <v>72</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>44794</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Give</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Software Development Engineer I/II - Front End</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Entry level</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Bengaluru North, Karnataka, India</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>https://in.linkedin.com/jobs/view/software-development-engineer-i-ii-front-end-at-give-3269327796?refId=%2Fbqm7BL%2BlGtUTG9QMchYVQ%3D%3D&amp;trackingId=YrpsLcUJSycyC85QtYycNw%3D%3D&amp;position=22&amp;pageNum=2&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Introduction Give is India’s largest and most trusted giving platform, and our mission is promote effective and efficient giving, so that our poor have a chance. With contributions of over 300 crores made to our 200+ vetted and trusted nonprofits, our giving community of 1M+ donors has impacted lives of 4M+ people across 23 states in India. We are an extremely rare workplace that brings a fast-paced, high-growth startup work culture together with a compassion-driven high-impact work environment. Give Platform We are building one of the world’s best tech platforms for online giving, where we provide opportunities for people to donate to any cause, non-profit or geography that they care about, in the most simple, personalised and effective manner. We hope to scale our impact on the lives of millions of underprivileged people every year, by democratizing philanthropy, through our workplace giving, subscription giving and crowdfunding products. Give Tech Stack Details: https://stackshare.io/giveindia Role At Give, we are looking for top-talent for our engineering team - software engineers who want to solve really complex problems, continually learn, and most importantly, make a real impact in the lives of others. At Give, you will… work alongside product to understand their requirements, and design, develop and iterate. think through complex architecture to build robust platforms. build well-abstracted modules and services follow scrum methodology to iterate and deploy fast. Apply if you… like to build responsive user-facing web applications that are built with mobile and desktop in mind have experience with medium to large-scale web applications have solid understanding of interface design principles are known for good aesthetic taste and design sense have experience in turning mockups and wireframes into elegantly executed code like to work with product, design and other stakeholders in the company to identify customer pain points, come up with solutions, prototype, iterate and ship daily have used version control systems (Git, Subversion etc.) like to improve developer productivity by investing in tools, frameworks and internal products Good to have… A Github account, Stack Overflow account or equivalent that demonstrates your ability to work on complicated projects or some other way to validate your expertise. Skills:- Javascript, React.js, Express, SASS and HTML/CSS</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>git, app, project, it, ml, design, building, web, web applications</t>
         </is>
       </c>
     </row>
